--- a/jugadores.xlsx
+++ b/jugadores.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="119">
   <si>
     <t xml:space="preserve">Nombre completo</t>
   </si>
@@ -377,12 +377,6 @@
   </si>
   <si>
     <t xml:space="preserve">MARGARITA CISNEROS 099397320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">danilo el mejor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12312</t>
   </si>
 </sst>
 </file>
@@ -711,7 +705,7 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="22:22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1735,27 +1729,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>1234425</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>12312</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" s="1" t="n">
-        <v>12312</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>12312</v>
-      </c>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E23" s="6"/>

--- a/jugadores.xlsx
+++ b/jugadores.xlsx
@@ -383,11 +383,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="dd\-mm\-yyyy"/>
-    <numFmt numFmtId="167" formatCode="d\-m\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -493,7 +492,15 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -501,16 +508,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -705,7 +704,7 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="22:22"/>
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -739,10 +738,10 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -783,49 +782,49 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="6" t="n">
         <v>39142</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="5" t="n">
         <v>1.7</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="5" t="n">
         <v>62</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="4" t="s">
+      <c r="J2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="Q2" s="1" t="s">
@@ -833,3837 +832,3837 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="5" t="n">
         <v>56509745</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="6" t="n">
         <v>39218</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="5" t="n">
         <v>1.75</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <v>65</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="4" t="s">
+      <c r="J3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="5" t="n">
         <v>56927951</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="6" t="n">
         <v>39390</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="5" t="n">
         <v>1.79</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="5" t="n">
         <v>63</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="4" t="s">
+      <c r="J4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="4" t="s">
+      <c r="N4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="5" t="n">
         <v>57025081</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="6" t="n">
         <v>39470</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="5" t="n">
         <v>1.81</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>69.4</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="4" t="s">
+      <c r="J5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="5" t="n">
         <v>57541495</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="6" t="n">
         <v>39709</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="4" t="s">
+      <c r="J6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="5" t="n">
         <v>56394152</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="6" t="n">
         <v>39118</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="5" t="n">
         <v>1.7</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="5" t="n">
         <v>69</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="4" t="s">
+      <c r="J7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="5" t="n">
         <v>56779314</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="6" t="n">
         <v>39113</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="5" t="n">
         <v>1.83</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="5" t="n">
         <v>70</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="4" t="s">
+      <c r="J8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="5" t="n">
         <v>56752100</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="6" t="n">
         <v>39272</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="5" t="n">
         <v>1.76</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="5" t="n">
         <v>72.5</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="4" t="s">
+      <c r="J9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="5" t="n">
         <v>56857168</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="6" t="n">
         <v>39387</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="5" t="n">
         <v>1.77</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="5" t="n">
         <v>67</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="4" t="s">
+      <c r="J10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" s="4" t="s">
+      <c r="N10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="P10" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="5" t="n">
         <v>57048578</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="6" t="n">
         <v>39658</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="5" t="n">
         <v>1.65</v>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="5" t="n">
         <v>63</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O11" s="4" t="s">
+      <c r="J11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="5" t="n">
         <v>57659925</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="6" t="n">
         <v>39234</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="5" t="n">
         <v>1.72</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="5" t="n">
         <v>68.2</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="4" t="s">
+      <c r="J12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="5" t="n">
         <v>57670436</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="6" t="n">
         <v>39771</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="5" t="n">
         <v>1.86</v>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="5" t="n">
         <v>74</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="4" t="s">
+      <c r="J13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="P13" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="5" t="n">
         <v>57073232</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="6" t="n">
         <v>39490</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="5" t="n">
         <v>1.69</v>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G14" s="5" t="n">
         <v>69</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="4" t="s">
+      <c r="K14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="M14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O14" s="4" t="s">
+      <c r="M14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="5" t="n">
         <v>57204110</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="D15" s="6" t="n">
         <v>39544</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="5" t="n">
         <v>1.63</v>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="5" t="n">
         <v>64</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O15" s="4" t="s">
+      <c r="J15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="P15" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="5" t="n">
         <v>57327756</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="D16" s="6" t="n">
         <v>39464</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="4" t="n">
+      <c r="F16" s="5" t="n">
         <v>1.77</v>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="5" t="n">
         <v>57.9</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="4" t="s">
+      <c r="K16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="M16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O16" s="4" t="s">
+      <c r="M16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="P16" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="5" t="n">
         <v>57368655</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="D17" s="6" t="n">
         <v>39617</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="F17" s="5" t="n">
         <v>1.83</v>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="5" t="n">
         <v>74</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" s="4" t="s">
+      <c r="J17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="N17" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="O17" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="5" t="n">
         <v>57064023</v>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="D18" s="6" t="n">
         <v>39482</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="4" t="n">
+      <c r="F18" s="5" t="n">
         <v>1.75</v>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="G18" s="5" t="n">
         <v>65</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O18" s="4" t="s">
+      <c r="J18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="P18" s="5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="5" t="n">
         <v>56433099</v>
       </c>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="D19" s="6" t="n">
         <v>39160</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F19" s="4" t="n">
+      <c r="F19" s="5" t="n">
         <v>1.72</v>
       </c>
-      <c r="G19" s="4" t="n">
+      <c r="G19" s="5" t="n">
         <v>75</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" s="4" t="s">
+      <c r="K19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="O19" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="5" t="n">
         <v>57611517</v>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="D20" s="8" t="n">
+      <c r="D20" s="6" t="n">
         <v>39742</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="4" t="n">
+      <c r="F20" s="5" t="n">
         <v>1.78</v>
       </c>
-      <c r="G20" s="4" t="n">
+      <c r="G20" s="5" t="n">
         <v>74.7</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="4" t="s">
+      <c r="J20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="L20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O20" s="4" t="s">
+      <c r="L20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="5" t="n">
         <v>56362995</v>
       </c>
-      <c r="C21" s="4" t="n">
+      <c r="C21" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="D21" s="6" t="n">
         <v>39122</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="4" t="n">
+      <c r="F21" s="5" t="n">
         <v>1.84</v>
       </c>
-      <c r="G21" s="4" t="n">
+      <c r="G21" s="5" t="n">
         <v>67.5</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O21" s="4" t="s">
+      <c r="J21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="P21" s="4" t="s">
+      <c r="P21" s="5" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E22" s="6"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E23" s="6"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E24" s="6"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E25" s="6"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E26" s="6"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E27" s="6"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E28" s="6"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E29" s="6"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E30" s="6"/>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E31" s="6"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E32" s="6"/>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E33" s="6"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="6"/>
+      <c r="E34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E35" s="6"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E36" s="6"/>
+      <c r="E36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E37" s="6"/>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E38" s="6"/>
+      <c r="E38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E39" s="6"/>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E40" s="6"/>
+      <c r="E40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E41" s="6"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E42" s="6"/>
+      <c r="E42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E43" s="6"/>
+      <c r="E43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E44" s="6"/>
+      <c r="E44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E45" s="6"/>
+      <c r="E45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E46" s="6"/>
+      <c r="E46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E47" s="6"/>
+      <c r="E47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E48" s="6"/>
+      <c r="E48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E49" s="6"/>
+      <c r="E49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E50" s="6"/>
+      <c r="E50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E51" s="6"/>
+      <c r="E51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E52" s="6"/>
+      <c r="E52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E53" s="6"/>
+      <c r="E53" s="7"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E54" s="6"/>
+      <c r="E54" s="7"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E55" s="6"/>
+      <c r="E55" s="7"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E56" s="6"/>
+      <c r="E56" s="7"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E57" s="6"/>
+      <c r="E57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E58" s="6"/>
+      <c r="E58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E59" s="6"/>
+      <c r="E59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E60" s="6"/>
+      <c r="E60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E61" s="6"/>
+      <c r="E61" s="7"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E62" s="6"/>
+      <c r="E62" s="7"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E63" s="6"/>
+      <c r="E63" s="7"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E64" s="6"/>
+      <c r="E64" s="7"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E65" s="6"/>
+      <c r="E65" s="7"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E66" s="6"/>
+      <c r="E66" s="7"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E67" s="6"/>
+      <c r="E67" s="7"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E68" s="6"/>
+      <c r="E68" s="7"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E69" s="6"/>
+      <c r="E69" s="7"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E70" s="6"/>
+      <c r="E70" s="7"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E71" s="6"/>
+      <c r="E71" s="7"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E72" s="6"/>
+      <c r="E72" s="7"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E73" s="6"/>
+      <c r="E73" s="7"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E74" s="6"/>
+      <c r="E74" s="7"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E75" s="6"/>
+      <c r="E75" s="7"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E76" s="6"/>
+      <c r="E76" s="7"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E77" s="6"/>
+      <c r="E77" s="7"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E78" s="6"/>
+      <c r="E78" s="7"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E79" s="6"/>
+      <c r="E79" s="7"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E80" s="6"/>
+      <c r="E80" s="7"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E81" s="6"/>
+      <c r="E81" s="7"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E82" s="6"/>
+      <c r="E82" s="7"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E83" s="6"/>
+      <c r="E83" s="7"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E84" s="6"/>
+      <c r="E84" s="7"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E85" s="6"/>
+      <c r="E85" s="7"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E86" s="6"/>
+      <c r="E86" s="7"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E87" s="6"/>
+      <c r="E87" s="7"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E88" s="6"/>
+      <c r="E88" s="7"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E89" s="6"/>
+      <c r="E89" s="7"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E90" s="6"/>
+      <c r="E90" s="7"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E91" s="6"/>
+      <c r="E91" s="7"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E92" s="6"/>
+      <c r="E92" s="7"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E93" s="6"/>
+      <c r="E93" s="7"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E94" s="6"/>
+      <c r="E94" s="7"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E95" s="6"/>
+      <c r="E95" s="7"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E96" s="6"/>
+      <c r="E96" s="7"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E97" s="6"/>
+      <c r="E97" s="7"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E98" s="6"/>
+      <c r="E98" s="7"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E99" s="6"/>
+      <c r="E99" s="7"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E100" s="6"/>
+      <c r="E100" s="7"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E101" s="6"/>
+      <c r="E101" s="7"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E102" s="6"/>
+      <c r="E102" s="7"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E103" s="6"/>
+      <c r="E103" s="7"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E104" s="6"/>
+      <c r="E104" s="7"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E105" s="6"/>
+      <c r="E105" s="7"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E106" s="6"/>
+      <c r="E106" s="7"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E107" s="6"/>
+      <c r="E107" s="7"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E108" s="6"/>
+      <c r="E108" s="7"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E109" s="6"/>
+      <c r="E109" s="7"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E110" s="6"/>
+      <c r="E110" s="7"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E111" s="6"/>
+      <c r="E111" s="7"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E112" s="6"/>
+      <c r="E112" s="7"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E113" s="6"/>
+      <c r="E113" s="7"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E114" s="6"/>
+      <c r="E114" s="7"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E115" s="6"/>
+      <c r="E115" s="7"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E116" s="6"/>
+      <c r="E116" s="7"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E117" s="6"/>
+      <c r="E117" s="7"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E118" s="6"/>
+      <c r="E118" s="7"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E119" s="6"/>
+      <c r="E119" s="7"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E120" s="6"/>
+      <c r="E120" s="7"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E121" s="6"/>
+      <c r="E121" s="7"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E122" s="6"/>
+      <c r="E122" s="7"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E123" s="6"/>
+      <c r="E123" s="7"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E124" s="6"/>
+      <c r="E124" s="7"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E125" s="6"/>
+      <c r="E125" s="7"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E126" s="6"/>
+      <c r="E126" s="7"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E127" s="6"/>
+      <c r="E127" s="7"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E128" s="6"/>
+      <c r="E128" s="7"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E129" s="6"/>
+      <c r="E129" s="7"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E130" s="6"/>
+      <c r="E130" s="7"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E131" s="6"/>
+      <c r="E131" s="7"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E132" s="6"/>
+      <c r="E132" s="7"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E133" s="6"/>
+      <c r="E133" s="7"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E134" s="6"/>
+      <c r="E134" s="7"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E135" s="6"/>
+      <c r="E135" s="7"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E136" s="6"/>
+      <c r="E136" s="7"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E137" s="6"/>
+      <c r="E137" s="7"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E138" s="6"/>
+      <c r="E138" s="7"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E139" s="6"/>
+      <c r="E139" s="7"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E140" s="6"/>
+      <c r="E140" s="7"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E141" s="6"/>
+      <c r="E141" s="7"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E142" s="6"/>
+      <c r="E142" s="7"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E143" s="6"/>
+      <c r="E143" s="7"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E144" s="6"/>
+      <c r="E144" s="7"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E145" s="6"/>
+      <c r="E145" s="7"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E146" s="6"/>
+      <c r="E146" s="7"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E147" s="6"/>
+      <c r="E147" s="7"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E148" s="6"/>
+      <c r="E148" s="7"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E149" s="6"/>
+      <c r="E149" s="7"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E150" s="6"/>
+      <c r="E150" s="7"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E151" s="6"/>
+      <c r="E151" s="7"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E152" s="6"/>
+      <c r="E152" s="7"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E153" s="6"/>
+      <c r="E153" s="7"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E154" s="6"/>
+      <c r="E154" s="7"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E155" s="6"/>
+      <c r="E155" s="7"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E156" s="6"/>
+      <c r="E156" s="7"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E157" s="6"/>
+      <c r="E157" s="7"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E158" s="6"/>
+      <c r="E158" s="7"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E159" s="6"/>
+      <c r="E159" s="7"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E160" s="6"/>
+      <c r="E160" s="7"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E161" s="6"/>
+      <c r="E161" s="7"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E162" s="6"/>
+      <c r="E162" s="7"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E163" s="6"/>
+      <c r="E163" s="7"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E164" s="6"/>
+      <c r="E164" s="7"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E165" s="6"/>
+      <c r="E165" s="7"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E166" s="6"/>
+      <c r="E166" s="7"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E167" s="6"/>
+      <c r="E167" s="7"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E168" s="6"/>
+      <c r="E168" s="7"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E169" s="6"/>
+      <c r="E169" s="7"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E170" s="6"/>
+      <c r="E170" s="7"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E171" s="6"/>
+      <c r="E171" s="7"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E172" s="6"/>
+      <c r="E172" s="7"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E173" s="6"/>
+      <c r="E173" s="7"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E174" s="6"/>
+      <c r="E174" s="7"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E175" s="6"/>
+      <c r="E175" s="7"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E176" s="6"/>
+      <c r="E176" s="7"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E177" s="6"/>
+      <c r="E177" s="7"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E178" s="6"/>
+      <c r="E178" s="7"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E179" s="6"/>
+      <c r="E179" s="7"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E180" s="6"/>
+      <c r="E180" s="7"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E181" s="6"/>
+      <c r="E181" s="7"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E182" s="6"/>
+      <c r="E182" s="7"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E183" s="6"/>
+      <c r="E183" s="7"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E184" s="6"/>
+      <c r="E184" s="7"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E185" s="6"/>
+      <c r="E185" s="7"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E186" s="6"/>
+      <c r="E186" s="7"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E187" s="6"/>
+      <c r="E187" s="7"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E188" s="6"/>
+      <c r="E188" s="7"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E189" s="6"/>
+      <c r="E189" s="7"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E190" s="6"/>
+      <c r="E190" s="7"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E191" s="6"/>
+      <c r="E191" s="7"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E192" s="6"/>
+      <c r="E192" s="7"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E193" s="6"/>
+      <c r="E193" s="7"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E194" s="6"/>
+      <c r="E194" s="7"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E195" s="6"/>
+      <c r="E195" s="7"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E196" s="6"/>
+      <c r="E196" s="7"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E197" s="6"/>
+      <c r="E197" s="7"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E198" s="6"/>
+      <c r="E198" s="7"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E199" s="6"/>
+      <c r="E199" s="7"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E200" s="6"/>
+      <c r="E200" s="7"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E201" s="6"/>
+      <c r="E201" s="7"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E202" s="6"/>
+      <c r="E202" s="7"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E203" s="6"/>
+      <c r="E203" s="7"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E204" s="6"/>
+      <c r="E204" s="7"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E205" s="6"/>
+      <c r="E205" s="7"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E206" s="6"/>
+      <c r="E206" s="7"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E207" s="6"/>
+      <c r="E207" s="7"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E208" s="6"/>
+      <c r="E208" s="7"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E209" s="6"/>
+      <c r="E209" s="7"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E210" s="6"/>
+      <c r="E210" s="7"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E211" s="6"/>
+      <c r="E211" s="7"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E212" s="6"/>
+      <c r="E212" s="7"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E213" s="6"/>
+      <c r="E213" s="7"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E214" s="6"/>
+      <c r="E214" s="7"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E215" s="6"/>
+      <c r="E215" s="7"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E216" s="6"/>
+      <c r="E216" s="7"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E217" s="6"/>
+      <c r="E217" s="7"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E218" s="6"/>
+      <c r="E218" s="7"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E219" s="6"/>
+      <c r="E219" s="7"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E220" s="6"/>
+      <c r="E220" s="7"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E221" s="6"/>
+      <c r="E221" s="7"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E222" s="6"/>
+      <c r="E222" s="7"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E223" s="6"/>
+      <c r="E223" s="7"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E224" s="6"/>
+      <c r="E224" s="7"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E225" s="6"/>
+      <c r="E225" s="7"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E226" s="6"/>
+      <c r="E226" s="7"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E227" s="6"/>
+      <c r="E227" s="7"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E228" s="6"/>
+      <c r="E228" s="7"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E229" s="6"/>
+      <c r="E229" s="7"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E230" s="6"/>
+      <c r="E230" s="7"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E231" s="6"/>
+      <c r="E231" s="7"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E232" s="6"/>
+      <c r="E232" s="7"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E233" s="6"/>
+      <c r="E233" s="7"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E234" s="6"/>
+      <c r="E234" s="7"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E235" s="6"/>
+      <c r="E235" s="7"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E236" s="6"/>
+      <c r="E236" s="7"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E237" s="6"/>
+      <c r="E237" s="7"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E238" s="6"/>
+      <c r="E238" s="7"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E239" s="6"/>
+      <c r="E239" s="7"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E240" s="6"/>
+      <c r="E240" s="7"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E241" s="6"/>
+      <c r="E241" s="7"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E242" s="6"/>
+      <c r="E242" s="7"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E243" s="6"/>
+      <c r="E243" s="7"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E244" s="6"/>
+      <c r="E244" s="7"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E245" s="6"/>
+      <c r="E245" s="7"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E246" s="6"/>
+      <c r="E246" s="7"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E247" s="6"/>
+      <c r="E247" s="7"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E248" s="6"/>
+      <c r="E248" s="7"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E249" s="6"/>
+      <c r="E249" s="7"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E250" s="6"/>
+      <c r="E250" s="7"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E251" s="6"/>
+      <c r="E251" s="7"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E252" s="6"/>
+      <c r="E252" s="7"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E253" s="6"/>
+      <c r="E253" s="7"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E254" s="6"/>
+      <c r="E254" s="7"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E255" s="6"/>
+      <c r="E255" s="7"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E256" s="6"/>
+      <c r="E256" s="7"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E257" s="6"/>
+      <c r="E257" s="7"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E258" s="6"/>
+      <c r="E258" s="7"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E259" s="6"/>
+      <c r="E259" s="7"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E260" s="6"/>
+      <c r="E260" s="7"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E261" s="6"/>
+      <c r="E261" s="7"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E262" s="6"/>
+      <c r="E262" s="7"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E263" s="6"/>
+      <c r="E263" s="7"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E264" s="6"/>
+      <c r="E264" s="7"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E265" s="6"/>
+      <c r="E265" s="7"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E266" s="6"/>
+      <c r="E266" s="7"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E267" s="6"/>
+      <c r="E267" s="7"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E268" s="6"/>
+      <c r="E268" s="7"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E269" s="6"/>
+      <c r="E269" s="7"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E270" s="6"/>
+      <c r="E270" s="7"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E271" s="6"/>
+      <c r="E271" s="7"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E272" s="6"/>
+      <c r="E272" s="7"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E273" s="6"/>
+      <c r="E273" s="7"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E274" s="6"/>
+      <c r="E274" s="7"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E275" s="6"/>
+      <c r="E275" s="7"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E276" s="6"/>
+      <c r="E276" s="7"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E277" s="6"/>
+      <c r="E277" s="7"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E278" s="6"/>
+      <c r="E278" s="7"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E279" s="6"/>
+      <c r="E279" s="7"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E280" s="6"/>
+      <c r="E280" s="7"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E281" s="6"/>
+      <c r="E281" s="7"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E282" s="6"/>
+      <c r="E282" s="7"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E283" s="6"/>
+      <c r="E283" s="7"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E284" s="6"/>
+      <c r="E284" s="7"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E285" s="6"/>
+      <c r="E285" s="7"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E286" s="6"/>
+      <c r="E286" s="7"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E287" s="6"/>
+      <c r="E287" s="7"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E288" s="6"/>
+      <c r="E288" s="7"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E289" s="6"/>
+      <c r="E289" s="7"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E290" s="6"/>
+      <c r="E290" s="7"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E291" s="6"/>
+      <c r="E291" s="7"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E292" s="6"/>
+      <c r="E292" s="7"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E293" s="6"/>
+      <c r="E293" s="7"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E294" s="6"/>
+      <c r="E294" s="7"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E295" s="6"/>
+      <c r="E295" s="7"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E296" s="6"/>
+      <c r="E296" s="7"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E297" s="6"/>
+      <c r="E297" s="7"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E298" s="6"/>
+      <c r="E298" s="7"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E299" s="6"/>
+      <c r="E299" s="7"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E300" s="6"/>
+      <c r="E300" s="7"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E301" s="6"/>
+      <c r="E301" s="7"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E302" s="6"/>
+      <c r="E302" s="7"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E303" s="6"/>
+      <c r="E303" s="7"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E304" s="6"/>
+      <c r="E304" s="7"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E305" s="6"/>
+      <c r="E305" s="7"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E306" s="6"/>
+      <c r="E306" s="7"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E307" s="6"/>
+      <c r="E307" s="7"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E308" s="6"/>
+      <c r="E308" s="7"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E309" s="6"/>
+      <c r="E309" s="7"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E310" s="6"/>
+      <c r="E310" s="7"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E311" s="6"/>
+      <c r="E311" s="7"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E312" s="6"/>
+      <c r="E312" s="7"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E313" s="6"/>
+      <c r="E313" s="7"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E314" s="6"/>
+      <c r="E314" s="7"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E315" s="6"/>
+      <c r="E315" s="7"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E316" s="6"/>
+      <c r="E316" s="7"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E317" s="6"/>
+      <c r="E317" s="7"/>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E318" s="6"/>
+      <c r="E318" s="7"/>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E319" s="6"/>
+      <c r="E319" s="7"/>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E320" s="6"/>
+      <c r="E320" s="7"/>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E321" s="6"/>
+      <c r="E321" s="7"/>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E322" s="6"/>
+      <c r="E322" s="7"/>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E323" s="6"/>
+      <c r="E323" s="7"/>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E324" s="6"/>
+      <c r="E324" s="7"/>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E325" s="6"/>
+      <c r="E325" s="7"/>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E326" s="6"/>
+      <c r="E326" s="7"/>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E327" s="6"/>
+      <c r="E327" s="7"/>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E328" s="6"/>
+      <c r="E328" s="7"/>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E329" s="6"/>
+      <c r="E329" s="7"/>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E330" s="6"/>
+      <c r="E330" s="7"/>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E331" s="6"/>
+      <c r="E331" s="7"/>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E332" s="6"/>
+      <c r="E332" s="7"/>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E333" s="6"/>
+      <c r="E333" s="7"/>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E334" s="6"/>
+      <c r="E334" s="7"/>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E335" s="6"/>
+      <c r="E335" s="7"/>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E336" s="6"/>
+      <c r="E336" s="7"/>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E337" s="6"/>
+      <c r="E337" s="7"/>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E338" s="6"/>
+      <c r="E338" s="7"/>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E339" s="6"/>
+      <c r="E339" s="7"/>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E340" s="6"/>
+      <c r="E340" s="7"/>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E341" s="6"/>
+      <c r="E341" s="7"/>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E342" s="6"/>
+      <c r="E342" s="7"/>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E343" s="6"/>
+      <c r="E343" s="7"/>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E344" s="6"/>
+      <c r="E344" s="7"/>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E345" s="6"/>
+      <c r="E345" s="7"/>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E346" s="6"/>
+      <c r="E346" s="7"/>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E347" s="6"/>
+      <c r="E347" s="7"/>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E348" s="6"/>
+      <c r="E348" s="7"/>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E349" s="6"/>
+      <c r="E349" s="7"/>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E350" s="6"/>
+      <c r="E350" s="7"/>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E351" s="6"/>
+      <c r="E351" s="7"/>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E352" s="6"/>
+      <c r="E352" s="7"/>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E353" s="6"/>
+      <c r="E353" s="7"/>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E354" s="6"/>
+      <c r="E354" s="7"/>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E355" s="6"/>
+      <c r="E355" s="7"/>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E356" s="6"/>
+      <c r="E356" s="7"/>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E357" s="6"/>
+      <c r="E357" s="7"/>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E358" s="6"/>
+      <c r="E358" s="7"/>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E359" s="6"/>
+      <c r="E359" s="7"/>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E360" s="6"/>
+      <c r="E360" s="7"/>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E361" s="6"/>
+      <c r="E361" s="7"/>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E362" s="6"/>
+      <c r="E362" s="7"/>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E363" s="6"/>
+      <c r="E363" s="7"/>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E364" s="6"/>
+      <c r="E364" s="7"/>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E365" s="6"/>
+      <c r="E365" s="7"/>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E366" s="6"/>
+      <c r="E366" s="7"/>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E367" s="6"/>
+      <c r="E367" s="7"/>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E368" s="6"/>
+      <c r="E368" s="7"/>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E369" s="6"/>
+      <c r="E369" s="7"/>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E370" s="6"/>
+      <c r="E370" s="7"/>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E371" s="6"/>
+      <c r="E371" s="7"/>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E372" s="6"/>
+      <c r="E372" s="7"/>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E373" s="6"/>
+      <c r="E373" s="7"/>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E374" s="6"/>
+      <c r="E374" s="7"/>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E375" s="6"/>
+      <c r="E375" s="7"/>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E376" s="6"/>
+      <c r="E376" s="7"/>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E377" s="6"/>
+      <c r="E377" s="7"/>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E378" s="6"/>
+      <c r="E378" s="7"/>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E379" s="6"/>
+      <c r="E379" s="7"/>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E380" s="6"/>
+      <c r="E380" s="7"/>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E381" s="6"/>
+      <c r="E381" s="7"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E382" s="6"/>
+      <c r="E382" s="7"/>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E383" s="6"/>
+      <c r="E383" s="7"/>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E384" s="6"/>
+      <c r="E384" s="7"/>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E385" s="6"/>
+      <c r="E385" s="7"/>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E386" s="6"/>
+      <c r="E386" s="7"/>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E387" s="6"/>
+      <c r="E387" s="7"/>
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E388" s="6"/>
+      <c r="E388" s="7"/>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E389" s="6"/>
+      <c r="E389" s="7"/>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E390" s="6"/>
+      <c r="E390" s="7"/>
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E391" s="6"/>
+      <c r="E391" s="7"/>
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E392" s="6"/>
+      <c r="E392" s="7"/>
     </row>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E393" s="6"/>
+      <c r="E393" s="7"/>
     </row>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E394" s="6"/>
+      <c r="E394" s="7"/>
     </row>
     <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E395" s="6"/>
+      <c r="E395" s="7"/>
     </row>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E396" s="6"/>
+      <c r="E396" s="7"/>
     </row>
     <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E397" s="6"/>
+      <c r="E397" s="7"/>
     </row>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E398" s="6"/>
+      <c r="E398" s="7"/>
     </row>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E399" s="6"/>
+      <c r="E399" s="7"/>
     </row>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E400" s="6"/>
+      <c r="E400" s="7"/>
     </row>
     <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E401" s="6"/>
+      <c r="E401" s="7"/>
     </row>
     <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E402" s="6"/>
+      <c r="E402" s="7"/>
     </row>
     <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E403" s="6"/>
+      <c r="E403" s="7"/>
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E404" s="6"/>
+      <c r="E404" s="7"/>
     </row>
     <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E405" s="6"/>
+      <c r="E405" s="7"/>
     </row>
     <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E406" s="6"/>
+      <c r="E406" s="7"/>
     </row>
     <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E407" s="6"/>
+      <c r="E407" s="7"/>
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E408" s="6"/>
+      <c r="E408" s="7"/>
     </row>
     <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E409" s="6"/>
+      <c r="E409" s="7"/>
     </row>
     <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E410" s="6"/>
+      <c r="E410" s="7"/>
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E411" s="6"/>
+      <c r="E411" s="7"/>
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E412" s="6"/>
+      <c r="E412" s="7"/>
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E413" s="6"/>
+      <c r="E413" s="7"/>
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E414" s="6"/>
+      <c r="E414" s="7"/>
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E415" s="6"/>
+      <c r="E415" s="7"/>
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E416" s="6"/>
+      <c r="E416" s="7"/>
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E417" s="6"/>
+      <c r="E417" s="7"/>
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E418" s="6"/>
+      <c r="E418" s="7"/>
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E419" s="6"/>
+      <c r="E419" s="7"/>
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E420" s="6"/>
+      <c r="E420" s="7"/>
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E421" s="6"/>
+      <c r="E421" s="7"/>
     </row>
     <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E422" s="6"/>
+      <c r="E422" s="7"/>
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E423" s="6"/>
+      <c r="E423" s="7"/>
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E424" s="6"/>
+      <c r="E424" s="7"/>
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E425" s="6"/>
+      <c r="E425" s="7"/>
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E426" s="6"/>
+      <c r="E426" s="7"/>
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E427" s="6"/>
+      <c r="E427" s="7"/>
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E428" s="6"/>
+      <c r="E428" s="7"/>
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E429" s="6"/>
+      <c r="E429" s="7"/>
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E430" s="6"/>
+      <c r="E430" s="7"/>
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E431" s="6"/>
+      <c r="E431" s="7"/>
     </row>
     <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E432" s="6"/>
+      <c r="E432" s="7"/>
     </row>
     <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E433" s="6"/>
+      <c r="E433" s="7"/>
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E434" s="6"/>
+      <c r="E434" s="7"/>
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E435" s="6"/>
+      <c r="E435" s="7"/>
     </row>
     <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E436" s="6"/>
+      <c r="E436" s="7"/>
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E437" s="6"/>
+      <c r="E437" s="7"/>
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E438" s="6"/>
+      <c r="E438" s="7"/>
     </row>
     <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E439" s="6"/>
+      <c r="E439" s="7"/>
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E440" s="6"/>
+      <c r="E440" s="7"/>
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E441" s="6"/>
+      <c r="E441" s="7"/>
     </row>
     <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E442" s="6"/>
+      <c r="E442" s="7"/>
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E443" s="6"/>
+      <c r="E443" s="7"/>
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E444" s="6"/>
+      <c r="E444" s="7"/>
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E445" s="6"/>
+      <c r="E445" s="7"/>
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E446" s="6"/>
+      <c r="E446" s="7"/>
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E447" s="6"/>
+      <c r="E447" s="7"/>
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E448" s="6"/>
+      <c r="E448" s="7"/>
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E449" s="6"/>
+      <c r="E449" s="7"/>
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E450" s="6"/>
+      <c r="E450" s="7"/>
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E451" s="6"/>
+      <c r="E451" s="7"/>
     </row>
     <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E452" s="6"/>
+      <c r="E452" s="7"/>
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E453" s="6"/>
+      <c r="E453" s="7"/>
     </row>
     <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E454" s="6"/>
+      <c r="E454" s="7"/>
     </row>
     <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E455" s="6"/>
+      <c r="E455" s="7"/>
     </row>
     <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E456" s="6"/>
+      <c r="E456" s="7"/>
     </row>
     <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E457" s="6"/>
+      <c r="E457" s="7"/>
     </row>
     <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E458" s="6"/>
+      <c r="E458" s="7"/>
     </row>
     <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E459" s="6"/>
+      <c r="E459" s="7"/>
     </row>
     <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E460" s="6"/>
+      <c r="E460" s="7"/>
     </row>
     <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E461" s="6"/>
+      <c r="E461" s="7"/>
     </row>
     <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E462" s="6"/>
+      <c r="E462" s="7"/>
     </row>
     <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E463" s="6"/>
+      <c r="E463" s="7"/>
     </row>
     <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E464" s="6"/>
+      <c r="E464" s="7"/>
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E465" s="6"/>
+      <c r="E465" s="7"/>
     </row>
     <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E466" s="6"/>
+      <c r="E466" s="7"/>
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E467" s="6"/>
+      <c r="E467" s="7"/>
     </row>
     <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E468" s="6"/>
+      <c r="E468" s="7"/>
     </row>
     <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E469" s="6"/>
+      <c r="E469" s="7"/>
     </row>
     <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E470" s="6"/>
+      <c r="E470" s="7"/>
     </row>
     <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E471" s="6"/>
+      <c r="E471" s="7"/>
     </row>
     <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E472" s="6"/>
+      <c r="E472" s="7"/>
     </row>
     <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E473" s="6"/>
+      <c r="E473" s="7"/>
     </row>
     <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E474" s="6"/>
+      <c r="E474" s="7"/>
     </row>
     <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E475" s="6"/>
+      <c r="E475" s="7"/>
     </row>
     <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E476" s="6"/>
+      <c r="E476" s="7"/>
     </row>
     <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E477" s="6"/>
+      <c r="E477" s="7"/>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E478" s="6"/>
+      <c r="E478" s="7"/>
     </row>
     <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E479" s="6"/>
+      <c r="E479" s="7"/>
     </row>
     <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E480" s="6"/>
+      <c r="E480" s="7"/>
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E481" s="6"/>
+      <c r="E481" s="7"/>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E482" s="6"/>
+      <c r="E482" s="7"/>
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E483" s="6"/>
+      <c r="E483" s="7"/>
     </row>
     <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E484" s="6"/>
+      <c r="E484" s="7"/>
     </row>
     <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E485" s="6"/>
+      <c r="E485" s="7"/>
     </row>
     <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E486" s="6"/>
+      <c r="E486" s="7"/>
     </row>
     <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E487" s="6"/>
+      <c r="E487" s="7"/>
     </row>
     <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E488" s="6"/>
+      <c r="E488" s="7"/>
     </row>
     <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E489" s="6"/>
+      <c r="E489" s="7"/>
     </row>
     <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E490" s="6"/>
+      <c r="E490" s="7"/>
     </row>
     <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E491" s="6"/>
+      <c r="E491" s="7"/>
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E492" s="6"/>
+      <c r="E492" s="7"/>
     </row>
     <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E493" s="6"/>
+      <c r="E493" s="7"/>
     </row>
     <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E494" s="6"/>
+      <c r="E494" s="7"/>
     </row>
     <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E495" s="6"/>
+      <c r="E495" s="7"/>
     </row>
     <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E496" s="6"/>
+      <c r="E496" s="7"/>
     </row>
     <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E497" s="6"/>
+      <c r="E497" s="7"/>
     </row>
     <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E498" s="6"/>
+      <c r="E498" s="7"/>
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E499" s="6"/>
+      <c r="E499" s="7"/>
     </row>
     <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E500" s="6"/>
+      <c r="E500" s="7"/>
     </row>
     <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E501" s="6"/>
+      <c r="E501" s="7"/>
     </row>
     <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E502" s="6"/>
+      <c r="E502" s="7"/>
     </row>
     <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E503" s="6"/>
+      <c r="E503" s="7"/>
     </row>
     <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E504" s="6"/>
+      <c r="E504" s="7"/>
     </row>
     <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E505" s="6"/>
+      <c r="E505" s="7"/>
     </row>
     <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E506" s="6"/>
+      <c r="E506" s="7"/>
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E507" s="6"/>
+      <c r="E507" s="7"/>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E508" s="6"/>
+      <c r="E508" s="7"/>
     </row>
     <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E509" s="6"/>
+      <c r="E509" s="7"/>
     </row>
     <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E510" s="6"/>
+      <c r="E510" s="7"/>
     </row>
     <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E511" s="6"/>
+      <c r="E511" s="7"/>
     </row>
     <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E512" s="6"/>
+      <c r="E512" s="7"/>
     </row>
     <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E513" s="6"/>
+      <c r="E513" s="7"/>
     </row>
     <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E514" s="6"/>
+      <c r="E514" s="7"/>
     </row>
     <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E515" s="6"/>
+      <c r="E515" s="7"/>
     </row>
     <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E516" s="6"/>
+      <c r="E516" s="7"/>
     </row>
     <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E517" s="6"/>
+      <c r="E517" s="7"/>
     </row>
     <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E518" s="6"/>
+      <c r="E518" s="7"/>
     </row>
     <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E519" s="6"/>
+      <c r="E519" s="7"/>
     </row>
     <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E520" s="6"/>
+      <c r="E520" s="7"/>
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E521" s="6"/>
+      <c r="E521" s="7"/>
     </row>
     <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E522" s="6"/>
+      <c r="E522" s="7"/>
     </row>
     <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E523" s="6"/>
+      <c r="E523" s="7"/>
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E524" s="6"/>
+      <c r="E524" s="7"/>
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E525" s="6"/>
+      <c r="E525" s="7"/>
     </row>
     <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E526" s="6"/>
+      <c r="E526" s="7"/>
     </row>
     <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E527" s="6"/>
+      <c r="E527" s="7"/>
     </row>
     <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E528" s="6"/>
+      <c r="E528" s="7"/>
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E529" s="6"/>
+      <c r="E529" s="7"/>
     </row>
     <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E530" s="6"/>
+      <c r="E530" s="7"/>
     </row>
     <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E531" s="6"/>
+      <c r="E531" s="7"/>
     </row>
     <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E532" s="6"/>
+      <c r="E532" s="7"/>
     </row>
     <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E533" s="6"/>
+      <c r="E533" s="7"/>
     </row>
     <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E534" s="6"/>
+      <c r="E534" s="7"/>
     </row>
     <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E535" s="6"/>
+      <c r="E535" s="7"/>
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E536" s="6"/>
+      <c r="E536" s="7"/>
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E537" s="6"/>
+      <c r="E537" s="7"/>
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E538" s="6"/>
+      <c r="E538" s="7"/>
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E539" s="6"/>
+      <c r="E539" s="7"/>
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E540" s="6"/>
+      <c r="E540" s="7"/>
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E541" s="6"/>
+      <c r="E541" s="7"/>
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E542" s="6"/>
+      <c r="E542" s="7"/>
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E543" s="6"/>
+      <c r="E543" s="7"/>
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E544" s="6"/>
+      <c r="E544" s="7"/>
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E545" s="6"/>
+      <c r="E545" s="7"/>
     </row>
     <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E546" s="6"/>
+      <c r="E546" s="7"/>
     </row>
     <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E547" s="6"/>
+      <c r="E547" s="7"/>
     </row>
     <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E548" s="6"/>
+      <c r="E548" s="7"/>
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E549" s="6"/>
+      <c r="E549" s="7"/>
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E550" s="6"/>
+      <c r="E550" s="7"/>
     </row>
     <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E551" s="6"/>
+      <c r="E551" s="7"/>
     </row>
     <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E552" s="6"/>
+      <c r="E552" s="7"/>
     </row>
     <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E553" s="6"/>
+      <c r="E553" s="7"/>
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E554" s="6"/>
+      <c r="E554" s="7"/>
     </row>
     <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E555" s="6"/>
+      <c r="E555" s="7"/>
     </row>
     <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E556" s="6"/>
+      <c r="E556" s="7"/>
     </row>
     <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E557" s="6"/>
+      <c r="E557" s="7"/>
     </row>
     <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E558" s="6"/>
+      <c r="E558" s="7"/>
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E559" s="6"/>
+      <c r="E559" s="7"/>
     </row>
     <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E560" s="6"/>
+      <c r="E560" s="7"/>
     </row>
     <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E561" s="6"/>
+      <c r="E561" s="7"/>
     </row>
     <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E562" s="6"/>
+      <c r="E562" s="7"/>
     </row>
     <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E563" s="6"/>
+      <c r="E563" s="7"/>
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E564" s="6"/>
+      <c r="E564" s="7"/>
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E565" s="6"/>
+      <c r="E565" s="7"/>
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E566" s="6"/>
+      <c r="E566" s="7"/>
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E567" s="6"/>
+      <c r="E567" s="7"/>
     </row>
     <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E568" s="6"/>
+      <c r="E568" s="7"/>
     </row>
     <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E569" s="6"/>
+      <c r="E569" s="7"/>
     </row>
     <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E570" s="6"/>
+      <c r="E570" s="7"/>
     </row>
     <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E571" s="6"/>
+      <c r="E571" s="7"/>
     </row>
     <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E572" s="6"/>
+      <c r="E572" s="7"/>
     </row>
     <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E573" s="6"/>
+      <c r="E573" s="7"/>
     </row>
     <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E574" s="6"/>
+      <c r="E574" s="7"/>
     </row>
     <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E575" s="6"/>
+      <c r="E575" s="7"/>
     </row>
     <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E576" s="6"/>
+      <c r="E576" s="7"/>
     </row>
     <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E577" s="6"/>
+      <c r="E577" s="7"/>
     </row>
     <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E578" s="6"/>
+      <c r="E578" s="7"/>
     </row>
     <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E579" s="6"/>
+      <c r="E579" s="7"/>
     </row>
     <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E580" s="6"/>
+      <c r="E580" s="7"/>
     </row>
     <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E581" s="6"/>
+      <c r="E581" s="7"/>
     </row>
     <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E582" s="6"/>
+      <c r="E582" s="7"/>
     </row>
     <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E583" s="6"/>
+      <c r="E583" s="7"/>
     </row>
     <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E584" s="6"/>
+      <c r="E584" s="7"/>
     </row>
     <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E585" s="6"/>
+      <c r="E585" s="7"/>
     </row>
     <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E586" s="6"/>
+      <c r="E586" s="7"/>
     </row>
     <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E587" s="6"/>
+      <c r="E587" s="7"/>
     </row>
     <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E588" s="6"/>
+      <c r="E588" s="7"/>
     </row>
     <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E589" s="6"/>
+      <c r="E589" s="7"/>
     </row>
     <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E590" s="6"/>
+      <c r="E590" s="7"/>
     </row>
     <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E591" s="6"/>
+      <c r="E591" s="7"/>
     </row>
     <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E592" s="6"/>
+      <c r="E592" s="7"/>
     </row>
     <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E593" s="6"/>
+      <c r="E593" s="7"/>
     </row>
     <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E594" s="6"/>
+      <c r="E594" s="7"/>
     </row>
     <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E595" s="6"/>
+      <c r="E595" s="7"/>
     </row>
     <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E596" s="6"/>
+      <c r="E596" s="7"/>
     </row>
     <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E597" s="6"/>
+      <c r="E597" s="7"/>
     </row>
     <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E598" s="6"/>
+      <c r="E598" s="7"/>
     </row>
     <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E599" s="6"/>
+      <c r="E599" s="7"/>
     </row>
     <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E600" s="6"/>
+      <c r="E600" s="7"/>
     </row>
     <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E601" s="6"/>
+      <c r="E601" s="7"/>
     </row>
     <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E602" s="6"/>
+      <c r="E602" s="7"/>
     </row>
     <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E603" s="6"/>
+      <c r="E603" s="7"/>
     </row>
     <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E604" s="6"/>
+      <c r="E604" s="7"/>
     </row>
     <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E605" s="6"/>
+      <c r="E605" s="7"/>
     </row>
     <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E606" s="6"/>
+      <c r="E606" s="7"/>
     </row>
     <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E607" s="6"/>
+      <c r="E607" s="7"/>
     </row>
     <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E608" s="6"/>
+      <c r="E608" s="7"/>
     </row>
     <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E609" s="6"/>
+      <c r="E609" s="7"/>
     </row>
     <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E610" s="6"/>
+      <c r="E610" s="7"/>
     </row>
     <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E611" s="6"/>
+      <c r="E611" s="7"/>
     </row>
     <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E612" s="6"/>
+      <c r="E612" s="7"/>
     </row>
     <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E613" s="6"/>
+      <c r="E613" s="7"/>
     </row>
     <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E614" s="6"/>
+      <c r="E614" s="7"/>
     </row>
     <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E615" s="6"/>
+      <c r="E615" s="7"/>
     </row>
     <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E616" s="6"/>
+      <c r="E616" s="7"/>
     </row>
     <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E617" s="6"/>
+      <c r="E617" s="7"/>
     </row>
     <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E618" s="6"/>
+      <c r="E618" s="7"/>
     </row>
     <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E619" s="6"/>
+      <c r="E619" s="7"/>
     </row>
     <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E620" s="6"/>
+      <c r="E620" s="7"/>
     </row>
     <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E621" s="6"/>
+      <c r="E621" s="7"/>
     </row>
     <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E622" s="6"/>
+      <c r="E622" s="7"/>
     </row>
     <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E623" s="6"/>
+      <c r="E623" s="7"/>
     </row>
     <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E624" s="6"/>
+      <c r="E624" s="7"/>
     </row>
     <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E625" s="6"/>
+      <c r="E625" s="7"/>
     </row>
     <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E626" s="6"/>
+      <c r="E626" s="7"/>
     </row>
     <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E627" s="6"/>
+      <c r="E627" s="7"/>
     </row>
     <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E628" s="6"/>
+      <c r="E628" s="7"/>
     </row>
     <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E629" s="6"/>
+      <c r="E629" s="7"/>
     </row>
     <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E630" s="6"/>
+      <c r="E630" s="7"/>
     </row>
     <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E631" s="6"/>
+      <c r="E631" s="7"/>
     </row>
     <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E632" s="6"/>
+      <c r="E632" s="7"/>
     </row>
     <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E633" s="6"/>
+      <c r="E633" s="7"/>
     </row>
     <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E634" s="6"/>
+      <c r="E634" s="7"/>
     </row>
     <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E635" s="6"/>
+      <c r="E635" s="7"/>
     </row>
     <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E636" s="6"/>
+      <c r="E636" s="7"/>
     </row>
     <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E637" s="6"/>
+      <c r="E637" s="7"/>
     </row>
     <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E638" s="6"/>
+      <c r="E638" s="7"/>
     </row>
     <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E639" s="6"/>
+      <c r="E639" s="7"/>
     </row>
     <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E640" s="6"/>
+      <c r="E640" s="7"/>
     </row>
     <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E641" s="6"/>
+      <c r="E641" s="7"/>
     </row>
     <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E642" s="6"/>
+      <c r="E642" s="7"/>
     </row>
     <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E643" s="6"/>
+      <c r="E643" s="7"/>
     </row>
     <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E644" s="6"/>
+      <c r="E644" s="7"/>
     </row>
     <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E645" s="6"/>
+      <c r="E645" s="7"/>
     </row>
     <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E646" s="6"/>
+      <c r="E646" s="7"/>
     </row>
     <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E647" s="6"/>
+      <c r="E647" s="7"/>
     </row>
     <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E648" s="6"/>
+      <c r="E648" s="7"/>
     </row>
     <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E649" s="6"/>
+      <c r="E649" s="7"/>
     </row>
     <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E650" s="6"/>
+      <c r="E650" s="7"/>
     </row>
     <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E651" s="6"/>
+      <c r="E651" s="7"/>
     </row>
     <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E652" s="6"/>
+      <c r="E652" s="7"/>
     </row>
     <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E653" s="6"/>
+      <c r="E653" s="7"/>
     </row>
     <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E654" s="6"/>
+      <c r="E654" s="7"/>
     </row>
     <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E655" s="6"/>
+      <c r="E655" s="7"/>
     </row>
     <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E656" s="6"/>
+      <c r="E656" s="7"/>
     </row>
     <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E657" s="6"/>
+      <c r="E657" s="7"/>
     </row>
     <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E658" s="6"/>
+      <c r="E658" s="7"/>
     </row>
     <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E659" s="6"/>
+      <c r="E659" s="7"/>
     </row>
     <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E660" s="6"/>
+      <c r="E660" s="7"/>
     </row>
     <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E661" s="6"/>
+      <c r="E661" s="7"/>
     </row>
     <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E662" s="6"/>
+      <c r="E662" s="7"/>
     </row>
     <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E663" s="6"/>
+      <c r="E663" s="7"/>
     </row>
     <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E664" s="6"/>
+      <c r="E664" s="7"/>
     </row>
     <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E665" s="6"/>
+      <c r="E665" s="7"/>
     </row>
     <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E666" s="6"/>
+      <c r="E666" s="7"/>
     </row>
     <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E667" s="6"/>
+      <c r="E667" s="7"/>
     </row>
     <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E668" s="6"/>
+      <c r="E668" s="7"/>
     </row>
     <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E669" s="6"/>
+      <c r="E669" s="7"/>
     </row>
     <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E670" s="6"/>
+      <c r="E670" s="7"/>
     </row>
     <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E671" s="6"/>
+      <c r="E671" s="7"/>
     </row>
     <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E672" s="6"/>
+      <c r="E672" s="7"/>
     </row>
     <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E673" s="6"/>
+      <c r="E673" s="7"/>
     </row>
     <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E674" s="6"/>
+      <c r="E674" s="7"/>
     </row>
     <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E675" s="6"/>
+      <c r="E675" s="7"/>
     </row>
     <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E676" s="6"/>
+      <c r="E676" s="7"/>
     </row>
     <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E677" s="6"/>
+      <c r="E677" s="7"/>
     </row>
     <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E678" s="6"/>
+      <c r="E678" s="7"/>
     </row>
     <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E679" s="6"/>
+      <c r="E679" s="7"/>
     </row>
     <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E680" s="6"/>
+      <c r="E680" s="7"/>
     </row>
     <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E681" s="6"/>
+      <c r="E681" s="7"/>
     </row>
     <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E682" s="6"/>
+      <c r="E682" s="7"/>
     </row>
     <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E683" s="6"/>
+      <c r="E683" s="7"/>
     </row>
     <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E684" s="6"/>
+      <c r="E684" s="7"/>
     </row>
     <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E685" s="6"/>
+      <c r="E685" s="7"/>
     </row>
     <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E686" s="6"/>
+      <c r="E686" s="7"/>
     </row>
     <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E687" s="6"/>
+      <c r="E687" s="7"/>
     </row>
     <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E688" s="6"/>
+      <c r="E688" s="7"/>
     </row>
     <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E689" s="6"/>
+      <c r="E689" s="7"/>
     </row>
     <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E690" s="6"/>
+      <c r="E690" s="7"/>
     </row>
     <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E691" s="6"/>
+      <c r="E691" s="7"/>
     </row>
     <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E692" s="6"/>
+      <c r="E692" s="7"/>
     </row>
     <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E693" s="6"/>
+      <c r="E693" s="7"/>
     </row>
     <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E694" s="6"/>
+      <c r="E694" s="7"/>
     </row>
     <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E695" s="6"/>
+      <c r="E695" s="7"/>
     </row>
     <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E696" s="6"/>
+      <c r="E696" s="7"/>
     </row>
     <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E697" s="6"/>
+      <c r="E697" s="7"/>
     </row>
     <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E698" s="6"/>
+      <c r="E698" s="7"/>
     </row>
     <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E699" s="6"/>
+      <c r="E699" s="7"/>
     </row>
     <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E700" s="6"/>
+      <c r="E700" s="7"/>
     </row>
     <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E701" s="6"/>
+      <c r="E701" s="7"/>
     </row>
     <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E702" s="6"/>
+      <c r="E702" s="7"/>
     </row>
     <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E703" s="6"/>
+      <c r="E703" s="7"/>
     </row>
     <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E704" s="6"/>
+      <c r="E704" s="7"/>
     </row>
     <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E705" s="6"/>
+      <c r="E705" s="7"/>
     </row>
     <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E706" s="6"/>
+      <c r="E706" s="7"/>
     </row>
     <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E707" s="6"/>
+      <c r="E707" s="7"/>
     </row>
     <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E708" s="6"/>
+      <c r="E708" s="7"/>
     </row>
     <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E709" s="6"/>
+      <c r="E709" s="7"/>
     </row>
     <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E710" s="6"/>
+      <c r="E710" s="7"/>
     </row>
     <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E711" s="6"/>
+      <c r="E711" s="7"/>
     </row>
     <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E712" s="6"/>
+      <c r="E712" s="7"/>
     </row>
     <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E713" s="6"/>
+      <c r="E713" s="7"/>
     </row>
     <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E714" s="6"/>
+      <c r="E714" s="7"/>
     </row>
     <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E715" s="6"/>
+      <c r="E715" s="7"/>
     </row>
     <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E716" s="6"/>
+      <c r="E716" s="7"/>
     </row>
     <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E717" s="6"/>
+      <c r="E717" s="7"/>
     </row>
     <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E718" s="6"/>
+      <c r="E718" s="7"/>
     </row>
     <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E719" s="6"/>
+      <c r="E719" s="7"/>
     </row>
     <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E720" s="6"/>
+      <c r="E720" s="7"/>
     </row>
     <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E721" s="6"/>
+      <c r="E721" s="7"/>
     </row>
     <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E722" s="6"/>
+      <c r="E722" s="7"/>
     </row>
     <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E723" s="6"/>
+      <c r="E723" s="7"/>
     </row>
     <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E724" s="6"/>
+      <c r="E724" s="7"/>
     </row>
     <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E725" s="6"/>
+      <c r="E725" s="7"/>
     </row>
     <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E726" s="6"/>
+      <c r="E726" s="7"/>
     </row>
     <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E727" s="6"/>
+      <c r="E727" s="7"/>
     </row>
     <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E728" s="6"/>
+      <c r="E728" s="7"/>
     </row>
     <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E729" s="6"/>
+      <c r="E729" s="7"/>
     </row>
     <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E730" s="6"/>
+      <c r="E730" s="7"/>
     </row>
     <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E731" s="6"/>
+      <c r="E731" s="7"/>
     </row>
     <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E732" s="6"/>
+      <c r="E732" s="7"/>
     </row>
     <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E733" s="6"/>
+      <c r="E733" s="7"/>
     </row>
     <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E734" s="6"/>
+      <c r="E734" s="7"/>
     </row>
     <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E735" s="6"/>
+      <c r="E735" s="7"/>
     </row>
     <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E736" s="6"/>
+      <c r="E736" s="7"/>
     </row>
     <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E737" s="6"/>
+      <c r="E737" s="7"/>
     </row>
     <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E738" s="6"/>
+      <c r="E738" s="7"/>
     </row>
     <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E739" s="6"/>
+      <c r="E739" s="7"/>
     </row>
     <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E740" s="6"/>
+      <c r="E740" s="7"/>
     </row>
     <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E741" s="6"/>
+      <c r="E741" s="7"/>
     </row>
     <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E742" s="6"/>
+      <c r="E742" s="7"/>
     </row>
     <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E743" s="6"/>
+      <c r="E743" s="7"/>
     </row>
     <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E744" s="6"/>
+      <c r="E744" s="7"/>
     </row>
     <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E745" s="6"/>
+      <c r="E745" s="7"/>
     </row>
     <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E746" s="6"/>
+      <c r="E746" s="7"/>
     </row>
     <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E747" s="6"/>
+      <c r="E747" s="7"/>
     </row>
     <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E748" s="6"/>
+      <c r="E748" s="7"/>
     </row>
     <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E749" s="6"/>
+      <c r="E749" s="7"/>
     </row>
     <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E750" s="6"/>
+      <c r="E750" s="7"/>
     </row>
     <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E751" s="6"/>
+      <c r="E751" s="7"/>
     </row>
     <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E752" s="6"/>
+      <c r="E752" s="7"/>
     </row>
     <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E753" s="6"/>
+      <c r="E753" s="7"/>
     </row>
     <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E754" s="6"/>
+      <c r="E754" s="7"/>
     </row>
     <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E755" s="6"/>
+      <c r="E755" s="7"/>
     </row>
     <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E756" s="6"/>
+      <c r="E756" s="7"/>
     </row>
     <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E757" s="6"/>
+      <c r="E757" s="7"/>
     </row>
     <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E758" s="6"/>
+      <c r="E758" s="7"/>
     </row>
     <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E759" s="6"/>
+      <c r="E759" s="7"/>
     </row>
     <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E760" s="6"/>
+      <c r="E760" s="7"/>
     </row>
     <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E761" s="6"/>
+      <c r="E761" s="7"/>
     </row>
     <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E762" s="6"/>
+      <c r="E762" s="7"/>
     </row>
     <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E763" s="6"/>
+      <c r="E763" s="7"/>
     </row>
     <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E764" s="6"/>
+      <c r="E764" s="7"/>
     </row>
     <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E765" s="6"/>
+      <c r="E765" s="7"/>
     </row>
     <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E766" s="6"/>
+      <c r="E766" s="7"/>
     </row>
     <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E767" s="6"/>
+      <c r="E767" s="7"/>
     </row>
     <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E768" s="6"/>
+      <c r="E768" s="7"/>
     </row>
     <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E769" s="6"/>
+      <c r="E769" s="7"/>
     </row>
     <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E770" s="6"/>
+      <c r="E770" s="7"/>
     </row>
     <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E771" s="6"/>
+      <c r="E771" s="7"/>
     </row>
     <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E772" s="6"/>
+      <c r="E772" s="7"/>
     </row>
     <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E773" s="6"/>
+      <c r="E773" s="7"/>
     </row>
     <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E774" s="6"/>
+      <c r="E774" s="7"/>
     </row>
     <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E775" s="6"/>
+      <c r="E775" s="7"/>
     </row>
     <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E776" s="6"/>
+      <c r="E776" s="7"/>
     </row>
     <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E777" s="6"/>
+      <c r="E777" s="7"/>
     </row>
     <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E778" s="6"/>
+      <c r="E778" s="7"/>
     </row>
     <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E779" s="6"/>
+      <c r="E779" s="7"/>
     </row>
     <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E780" s="6"/>
+      <c r="E780" s="7"/>
     </row>
     <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E781" s="6"/>
+      <c r="E781" s="7"/>
     </row>
     <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E782" s="6"/>
+      <c r="E782" s="7"/>
     </row>
     <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E783" s="6"/>
+      <c r="E783" s="7"/>
     </row>
     <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E784" s="6"/>
+      <c r="E784" s="7"/>
     </row>
     <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E785" s="6"/>
+      <c r="E785" s="7"/>
     </row>
     <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E786" s="6"/>
+      <c r="E786" s="7"/>
     </row>
     <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E787" s="6"/>
+      <c r="E787" s="7"/>
     </row>
     <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E788" s="6"/>
+      <c r="E788" s="7"/>
     </row>
     <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E789" s="6"/>
+      <c r="E789" s="7"/>
     </row>
     <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E790" s="6"/>
+      <c r="E790" s="7"/>
     </row>
     <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E791" s="6"/>
+      <c r="E791" s="7"/>
     </row>
     <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E792" s="6"/>
+      <c r="E792" s="7"/>
     </row>
     <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E793" s="6"/>
+      <c r="E793" s="7"/>
     </row>
     <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E794" s="6"/>
+      <c r="E794" s="7"/>
     </row>
     <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E795" s="6"/>
+      <c r="E795" s="7"/>
     </row>
     <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E796" s="6"/>
+      <c r="E796" s="7"/>
     </row>
     <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E797" s="6"/>
+      <c r="E797" s="7"/>
     </row>
     <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E798" s="6"/>
+      <c r="E798" s="7"/>
     </row>
     <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E799" s="6"/>
+      <c r="E799" s="7"/>
     </row>
     <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E800" s="6"/>
+      <c r="E800" s="7"/>
     </row>
     <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E801" s="6"/>
+      <c r="E801" s="7"/>
     </row>
     <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E802" s="6"/>
+      <c r="E802" s="7"/>
     </row>
     <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E803" s="6"/>
+      <c r="E803" s="7"/>
     </row>
     <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E804" s="6"/>
+      <c r="E804" s="7"/>
     </row>
     <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E805" s="6"/>
+      <c r="E805" s="7"/>
     </row>
     <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E806" s="6"/>
+      <c r="E806" s="7"/>
     </row>
     <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E807" s="6"/>
+      <c r="E807" s="7"/>
     </row>
     <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E808" s="6"/>
+      <c r="E808" s="7"/>
     </row>
     <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E809" s="6"/>
+      <c r="E809" s="7"/>
     </row>
     <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E810" s="6"/>
+      <c r="E810" s="7"/>
     </row>
     <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E811" s="6"/>
+      <c r="E811" s="7"/>
     </row>
     <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E812" s="6"/>
+      <c r="E812" s="7"/>
     </row>
     <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E813" s="6"/>
+      <c r="E813" s="7"/>
     </row>
     <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E814" s="6"/>
+      <c r="E814" s="7"/>
     </row>
     <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E815" s="6"/>
+      <c r="E815" s="7"/>
     </row>
     <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E816" s="6"/>
+      <c r="E816" s="7"/>
     </row>
     <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E817" s="6"/>
+      <c r="E817" s="7"/>
     </row>
     <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E818" s="6"/>
+      <c r="E818" s="7"/>
     </row>
     <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E819" s="6"/>
+      <c r="E819" s="7"/>
     </row>
     <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E820" s="6"/>
+      <c r="E820" s="7"/>
     </row>
     <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E821" s="6"/>
+      <c r="E821" s="7"/>
     </row>
     <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E822" s="6"/>
+      <c r="E822" s="7"/>
     </row>
     <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E823" s="6"/>
+      <c r="E823" s="7"/>
     </row>
     <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E824" s="6"/>
+      <c r="E824" s="7"/>
     </row>
     <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E825" s="6"/>
+      <c r="E825" s="7"/>
     </row>
     <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E826" s="6"/>
+      <c r="E826" s="7"/>
     </row>
     <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E827" s="6"/>
+      <c r="E827" s="7"/>
     </row>
     <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E828" s="6"/>
+      <c r="E828" s="7"/>
     </row>
     <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E829" s="6"/>
+      <c r="E829" s="7"/>
     </row>
     <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E830" s="6"/>
+      <c r="E830" s="7"/>
     </row>
     <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E831" s="6"/>
+      <c r="E831" s="7"/>
     </row>
     <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E832" s="6"/>
+      <c r="E832" s="7"/>
     </row>
     <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E833" s="6"/>
+      <c r="E833" s="7"/>
     </row>
     <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E834" s="6"/>
+      <c r="E834" s="7"/>
     </row>
     <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E835" s="6"/>
+      <c r="E835" s="7"/>
     </row>
     <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E836" s="6"/>
+      <c r="E836" s="7"/>
     </row>
     <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E837" s="6"/>
+      <c r="E837" s="7"/>
     </row>
     <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E838" s="6"/>
+      <c r="E838" s="7"/>
     </row>
     <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E839" s="6"/>
+      <c r="E839" s="7"/>
     </row>
     <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E840" s="6"/>
+      <c r="E840" s="7"/>
     </row>
     <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E841" s="6"/>
+      <c r="E841" s="7"/>
     </row>
     <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E842" s="6"/>
+      <c r="E842" s="7"/>
     </row>
     <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E843" s="6"/>
+      <c r="E843" s="7"/>
     </row>
     <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E844" s="6"/>
+      <c r="E844" s="7"/>
     </row>
     <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E845" s="6"/>
+      <c r="E845" s="7"/>
     </row>
     <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E846" s="6"/>
+      <c r="E846" s="7"/>
     </row>
     <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E847" s="6"/>
+      <c r="E847" s="7"/>
     </row>
     <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E848" s="6"/>
+      <c r="E848" s="7"/>
     </row>
     <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E849" s="6"/>
+      <c r="E849" s="7"/>
     </row>
     <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E850" s="6"/>
+      <c r="E850" s="7"/>
     </row>
     <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E851" s="6"/>
+      <c r="E851" s="7"/>
     </row>
     <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E852" s="6"/>
+      <c r="E852" s="7"/>
     </row>
     <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E853" s="6"/>
+      <c r="E853" s="7"/>
     </row>
     <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E854" s="6"/>
+      <c r="E854" s="7"/>
     </row>
     <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E855" s="6"/>
+      <c r="E855" s="7"/>
     </row>
     <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E856" s="6"/>
+      <c r="E856" s="7"/>
     </row>
     <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E857" s="6"/>
+      <c r="E857" s="7"/>
     </row>
     <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E858" s="6"/>
+      <c r="E858" s="7"/>
     </row>
     <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E859" s="6"/>
+      <c r="E859" s="7"/>
     </row>
     <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E860" s="6"/>
+      <c r="E860" s="7"/>
     </row>
     <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E861" s="6"/>
+      <c r="E861" s="7"/>
     </row>
     <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E862" s="6"/>
+      <c r="E862" s="7"/>
     </row>
     <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E863" s="6"/>
+      <c r="E863" s="7"/>
     </row>
     <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E864" s="6"/>
+      <c r="E864" s="7"/>
     </row>
     <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E865" s="6"/>
+      <c r="E865" s="7"/>
     </row>
     <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E866" s="6"/>
+      <c r="E866" s="7"/>
     </row>
     <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E867" s="6"/>
+      <c r="E867" s="7"/>
     </row>
     <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E868" s="6"/>
+      <c r="E868" s="7"/>
     </row>
     <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E869" s="6"/>
+      <c r="E869" s="7"/>
     </row>
     <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E870" s="6"/>
+      <c r="E870" s="7"/>
     </row>
     <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E871" s="6"/>
+      <c r="E871" s="7"/>
     </row>
     <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E872" s="6"/>
+      <c r="E872" s="7"/>
     </row>
     <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E873" s="6"/>
+      <c r="E873" s="7"/>
     </row>
     <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E874" s="6"/>
+      <c r="E874" s="7"/>
     </row>
     <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E875" s="6"/>
+      <c r="E875" s="7"/>
     </row>
     <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E876" s="6"/>
+      <c r="E876" s="7"/>
     </row>
     <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E877" s="6"/>
+      <c r="E877" s="7"/>
     </row>
     <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E878" s="6"/>
+      <c r="E878" s="7"/>
     </row>
     <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E879" s="6"/>
+      <c r="E879" s="7"/>
     </row>
     <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E880" s="6"/>
+      <c r="E880" s="7"/>
     </row>
     <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E881" s="6"/>
+      <c r="E881" s="7"/>
     </row>
     <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E882" s="6"/>
+      <c r="E882" s="7"/>
     </row>
     <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E883" s="6"/>
+      <c r="E883" s="7"/>
     </row>
     <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E884" s="6"/>
+      <c r="E884" s="7"/>
     </row>
     <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E885" s="6"/>
+      <c r="E885" s="7"/>
     </row>
     <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E886" s="6"/>
+      <c r="E886" s="7"/>
     </row>
     <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E887" s="6"/>
+      <c r="E887" s="7"/>
     </row>
     <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E888" s="6"/>
+      <c r="E888" s="7"/>
     </row>
     <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E889" s="6"/>
+      <c r="E889" s="7"/>
     </row>
     <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E890" s="6"/>
+      <c r="E890" s="7"/>
     </row>
     <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E891" s="6"/>
+      <c r="E891" s="7"/>
     </row>
     <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E892" s="6"/>
+      <c r="E892" s="7"/>
     </row>
     <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E893" s="6"/>
+      <c r="E893" s="7"/>
     </row>
     <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E894" s="6"/>
+      <c r="E894" s="7"/>
     </row>
     <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E895" s="6"/>
+      <c r="E895" s="7"/>
     </row>
     <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E896" s="6"/>
+      <c r="E896" s="7"/>
     </row>
     <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E897" s="6"/>
+      <c r="E897" s="7"/>
     </row>
     <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E898" s="6"/>
+      <c r="E898" s="7"/>
     </row>
     <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E899" s="6"/>
+      <c r="E899" s="7"/>
     </row>
     <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E900" s="6"/>
+      <c r="E900" s="7"/>
     </row>
     <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E901" s="6"/>
+      <c r="E901" s="7"/>
     </row>
     <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E902" s="6"/>
+      <c r="E902" s="7"/>
     </row>
     <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E903" s="6"/>
+      <c r="E903" s="7"/>
     </row>
     <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E904" s="6"/>
+      <c r="E904" s="7"/>
     </row>
     <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E905" s="6"/>
+      <c r="E905" s="7"/>
     </row>
     <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E906" s="6"/>
+      <c r="E906" s="7"/>
     </row>
     <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E907" s="6"/>
+      <c r="E907" s="7"/>
     </row>
     <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E908" s="6"/>
+      <c r="E908" s="7"/>
     </row>
     <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E909" s="6"/>
+      <c r="E909" s="7"/>
     </row>
     <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E910" s="6"/>
+      <c r="E910" s="7"/>
     </row>
     <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E911" s="6"/>
+      <c r="E911" s="7"/>
     </row>
     <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E912" s="6"/>
+      <c r="E912" s="7"/>
     </row>
     <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E913" s="6"/>
+      <c r="E913" s="7"/>
     </row>
     <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E914" s="6"/>
+      <c r="E914" s="7"/>
     </row>
     <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E915" s="6"/>
+      <c r="E915" s="7"/>
     </row>
     <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E916" s="6"/>
+      <c r="E916" s="7"/>
     </row>
     <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E917" s="6"/>
+      <c r="E917" s="7"/>
     </row>
     <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E918" s="6"/>
+      <c r="E918" s="7"/>
     </row>
     <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E919" s="6"/>
+      <c r="E919" s="7"/>
     </row>
     <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E920" s="6"/>
+      <c r="E920" s="7"/>
     </row>
     <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E921" s="6"/>
+      <c r="E921" s="7"/>
     </row>
     <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E922" s="6"/>
+      <c r="E922" s="7"/>
     </row>
     <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E923" s="6"/>
+      <c r="E923" s="7"/>
     </row>
     <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E924" s="6"/>
+      <c r="E924" s="7"/>
     </row>
     <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E925" s="6"/>
+      <c r="E925" s="7"/>
     </row>
     <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E926" s="6"/>
+      <c r="E926" s="7"/>
     </row>
     <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E927" s="6"/>
+      <c r="E927" s="7"/>
     </row>
     <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E928" s="6"/>
+      <c r="E928" s="7"/>
     </row>
     <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E929" s="6"/>
+      <c r="E929" s="7"/>
     </row>
     <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E930" s="6"/>
+      <c r="E930" s="7"/>
     </row>
     <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E931" s="6"/>
+      <c r="E931" s="7"/>
     </row>
     <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E932" s="6"/>
+      <c r="E932" s="7"/>
     </row>
     <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E933" s="6"/>
+      <c r="E933" s="7"/>
     </row>
     <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E934" s="6"/>
+      <c r="E934" s="7"/>
     </row>
     <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E935" s="6"/>
+      <c r="E935" s="7"/>
     </row>
     <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E936" s="6"/>
+      <c r="E936" s="7"/>
     </row>
     <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E937" s="6"/>
+      <c r="E937" s="7"/>
     </row>
     <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E938" s="6"/>
+      <c r="E938" s="7"/>
     </row>
     <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E939" s="6"/>
+      <c r="E939" s="7"/>
     </row>
     <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E940" s="6"/>
+      <c r="E940" s="7"/>
     </row>
     <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E941" s="6"/>
+      <c r="E941" s="7"/>
     </row>
     <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E942" s="6"/>
+      <c r="E942" s="7"/>
     </row>
     <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E943" s="6"/>
+      <c r="E943" s="7"/>
     </row>
     <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E944" s="6"/>
+      <c r="E944" s="7"/>
     </row>
     <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E945" s="6"/>
+      <c r="E945" s="7"/>
     </row>
     <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E946" s="6"/>
+      <c r="E946" s="7"/>
     </row>
     <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E947" s="6"/>
+      <c r="E947" s="7"/>
     </row>
     <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E948" s="6"/>
+      <c r="E948" s="7"/>
     </row>
     <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E949" s="6"/>
+      <c r="E949" s="7"/>
     </row>
     <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E950" s="6"/>
+      <c r="E950" s="7"/>
     </row>
     <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E951" s="6"/>
+      <c r="E951" s="7"/>
     </row>
     <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E952" s="6"/>
+      <c r="E952" s="7"/>
     </row>
     <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E953" s="6"/>
+      <c r="E953" s="7"/>
     </row>
     <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E954" s="6"/>
+      <c r="E954" s="7"/>
     </row>
     <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E955" s="6"/>
+      <c r="E955" s="7"/>
     </row>
     <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E956" s="6"/>
+      <c r="E956" s="7"/>
     </row>
     <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E957" s="6"/>
+      <c r="E957" s="7"/>
     </row>
     <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E958" s="6"/>
+      <c r="E958" s="7"/>
     </row>
     <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E959" s="6"/>
+      <c r="E959" s="7"/>
     </row>
     <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E960" s="6"/>
+      <c r="E960" s="7"/>
     </row>
     <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E961" s="6"/>
+      <c r="E961" s="7"/>
     </row>
     <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E962" s="6"/>
+      <c r="E962" s="7"/>
     </row>
     <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E963" s="6"/>
+      <c r="E963" s="7"/>
     </row>
     <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E964" s="6"/>
+      <c r="E964" s="7"/>
     </row>
     <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E965" s="6"/>
+      <c r="E965" s="7"/>
     </row>
     <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E966" s="6"/>
+      <c r="E966" s="7"/>
     </row>
     <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E967" s="6"/>
+      <c r="E967" s="7"/>
     </row>
     <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E968" s="6"/>
+      <c r="E968" s="7"/>
     </row>
     <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E969" s="6"/>
+      <c r="E969" s="7"/>
     </row>
     <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E970" s="6"/>
+      <c r="E970" s="7"/>
     </row>
     <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E971" s="6"/>
+      <c r="E971" s="7"/>
     </row>
     <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E972" s="6"/>
+      <c r="E972" s="7"/>
     </row>
     <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E973" s="6"/>
+      <c r="E973" s="7"/>
     </row>
     <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E974" s="6"/>
+      <c r="E974" s="7"/>
     </row>
     <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E975" s="6"/>
+      <c r="E975" s="7"/>
     </row>
     <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E976" s="6"/>
+      <c r="E976" s="7"/>
     </row>
     <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E977" s="6"/>
+      <c r="E977" s="7"/>
     </row>
     <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E978" s="6"/>
+      <c r="E978" s="7"/>
     </row>
     <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E979" s="6"/>
+      <c r="E979" s="7"/>
     </row>
     <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E980" s="6"/>
+      <c r="E980" s="7"/>
     </row>
     <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E981" s="6"/>
+      <c r="E981" s="7"/>
     </row>
     <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E982" s="6"/>
+      <c r="E982" s="7"/>
     </row>
     <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E983" s="6"/>
+      <c r="E983" s="7"/>
     </row>
     <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E984" s="6"/>
+      <c r="E984" s="7"/>
     </row>
     <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E985" s="6"/>
+      <c r="E985" s="7"/>
     </row>
     <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E986" s="6"/>
+      <c r="E986" s="7"/>
     </row>
     <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E987" s="6"/>
+      <c r="E987" s="7"/>
     </row>
     <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E988" s="6"/>
+      <c r="E988" s="7"/>
     </row>
     <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E989" s="6"/>
+      <c r="E989" s="7"/>
     </row>
     <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E990" s="6"/>
+      <c r="E990" s="7"/>
     </row>
     <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E991" s="6"/>
+      <c r="E991" s="7"/>
     </row>
     <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E992" s="6"/>
+      <c r="E992" s="7"/>
     </row>
     <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E993" s="6"/>
+      <c r="E993" s="7"/>
     </row>
     <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E994" s="6"/>
+      <c r="E994" s="7"/>
     </row>
     <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E995" s="6"/>
+      <c r="E995" s="7"/>
     </row>
     <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E996" s="6"/>
+      <c r="E996" s="7"/>
     </row>
     <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E997" s="6"/>
+      <c r="E997" s="7"/>
     </row>
     <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E998" s="6"/>
+      <c r="E998" s="7"/>
     </row>
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E999" s="6"/>
+      <c r="E999" s="7"/>
     </row>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E1000" s="6"/>
+      <c r="E1000" s="7"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/jugadores.xlsx
+++ b/jugadores.xlsx
@@ -704,7 +704,7 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/jugadores.xlsx
+++ b/jugadores.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="151">
   <si>
     <t xml:space="preserve">Nombre completo</t>
   </si>
@@ -377,16 +377,113 @@
   </si>
   <si>
     <t xml:space="preserve">MARGARITA CISNEROS 099397320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARRIOS THUL SANTINO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">091327048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTONELLA THUL 095966041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGNACIO BARRIOS 099856038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRYDLENDER BUZETA GUILLERMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">091379742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RINITIS ALERGICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTIALERGICOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADRIANA BUZETA 098821975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS FRYDLENDER 099550860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARIO BIANCO ALEJANDRO MAURO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">092823699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INHALADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEJANDRO NARIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIA CARVALO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WILSON GIMENEZ TOBIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">096199477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOHAN WILSON 094153803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATRICIA GIMENEZ 094889999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLANCHON MORELLI GUILLERMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">092030493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLIPTORQUIDIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARGARITA MORELLI 099406406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEJANDRO PLANCHON 098285514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BURGO CASTAÑOSE BRIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-09-2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMAR BURGO 092716837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONICA CASTAÑOSE 091477957</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -475,7 +572,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -510,6 +607,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -704,7 +813,7 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1728,22 +1837,296 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E22" s="7"/>
+      <c r="A22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>57634258</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>39752</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E23" s="7"/>
+      <c r="A23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>57613480</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>39742</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E24" s="7"/>
+      <c r="A24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>56782507</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>39294</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E25" s="7"/>
+      <c r="A25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>57324685</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>39351</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E26" s="7"/>
+      <c r="A26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>57551733</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>39714</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E27" s="7"/>
+      <c r="A27" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="10" t="n">
+        <v>57164348</v>
+      </c>
+      <c r="C27" s="10" t="n">
+        <v>17</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="10" t="n">
+        <v>99485250</v>
+      </c>
+      <c r="F27" s="10" t="n">
+        <v>167</v>
+      </c>
+      <c r="G27" s="10" t="n">
+        <v>62</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E28" s="7"/>

--- a/jugadores.xlsx
+++ b/jugadores.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="151">
   <si>
     <t xml:space="preserve">Nombre completo</t>
   </si>
@@ -64,10 +64,7 @@
     <t xml:space="preserve">Lesiones previas</t>
   </si>
   <si>
-    <t xml:space="preserve">Contacto de referencia 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contacto de referencia 2</t>
+    <t xml:space="preserve">Contacto de referencia (nombre, relación, teléfono)</t>
   </si>
   <si>
     <t xml:space="preserve">fotos</t>
@@ -76,10 +73,7 @@
     <t xml:space="preserve">ALVEZ OLIVERA JOAQUIN JOEL</t>
   </si>
   <si>
-    <t xml:space="preserve">5.640.967-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">099 752 209</t>
+    <t xml:space="preserve">01-03-2007</t>
   </si>
   <si>
     <t xml:space="preserve">CAMEC</t>
@@ -97,10 +91,211 @@
     <t xml:space="preserve">/fotoskarlen.png</t>
   </si>
   <si>
+    <t xml:space="preserve">ARTUS CANELA FACUNDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-10-2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PICADURAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROSSANA CANELA 099846779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/static/fotos/karlen.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARRIOS THUL SANTINO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31-10-2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTONELLA THUL 095966041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGNACIO BARRIOS 099856038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENTANCOR VELAZCO TOMAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-01-2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUMBALGIA MECANICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAOLA VELAZCO 099191504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEJANDRO BENTANCOR 099155435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BURGO CASTAÑOSE BRIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-09-2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMAR BURGO 092716837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONICA CASTAÑOSE 091477957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASTROMAN DALLONA LUCIANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05-02-2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANA DALLONA 098904116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FABIAN CASTROMAN 098932107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CESTAU ZENDRI ESTEBAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04-11-2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vegetaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NATALIA ZENDRI 099255948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIEL CESTAU 099670706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUELLO FIGUEIRAS ELIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-03-2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at panico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desgarro leve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANA FIGUEIRAS 099936496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO CANTO PAGALDAY DEGO FABIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31-01-2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIA PAGALDAY 091952655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUIS PEREIRA 092874186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRYDLENDER BUZETA GUILLERMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. CATOLICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RINITIS ALERGICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTIALERGICOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADRIANA BUZETA 098821975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS FRYDLENDER 099550860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCIA BENITEZ ALAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-01-2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hipotiroidismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4 25mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUILLERMO GARCIA 098900959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NANCY BENITEZ 091246744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIMENEZ DOTTI SANTIAGO DARIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-02-2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glaucoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gotitas lauten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIA PIA DOTTI 099006008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUSTAVO MEDERO 098462653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUICHARD CARABALLO FRANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-09-2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUIS GUICHARD 091633828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GELSY CARABALLO 093584967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERRERA VIERA LAUTARO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-11-2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desgarro posterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIELA VIERA 099502547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIEL HERRERA 098057471</t>
+  </si>
+  <si>
     <t xml:space="preserve">KARLEN BATISTA GONZALO</t>
   </si>
   <si>
-    <t xml:space="preserve">098130723</t>
+    <t xml:space="preserve">16-05-2007</t>
   </si>
   <si>
     <t xml:space="preserve">fractura peroné y tibia</t>
@@ -112,85 +307,34 @@
     <t xml:space="preserve">ROBERTO FARIAS 092982227</t>
   </si>
   <si>
-    <t xml:space="preserve">/static/fotos/karlen.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CESTAU ZENDRI ESTEBAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">092315286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vegetaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NATALIA ZENDRI 099255948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANIEL CESTAU 099670706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENTANCOR VELAZCO TOMAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">091850226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUMBALGIA MECANICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAOLA VELAZCO 099191504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEJANDRO BENTANCOR 099155435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUICHARD CARABALLO FRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">094097301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUIS GUICHARD 091633828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GELSY CARABALLO 093584967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASTROMAN DALLONA LUCIANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">098547238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANA DALLONA 098904116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FABIAN CASTROMAN 098932107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO CANTO PAGALDAY DEGO FABIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">096881712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARIA PAGALDAY 091952655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUIS PEREIRA 092874186</t>
+    <t xml:space="preserve">LA PAZ CARLOS EZEQUIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-07-2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS LA PAZ 098584791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTIRENA LOUSTAUNAU JHOAN BENJAMIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-11-2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amigdalas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROSARIO LOUSTAUNAU 098649474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERNANDO MARTIRENA 092966522</t>
   </si>
   <si>
     <t xml:space="preserve">MAYOLAS COLLAZO ANTONIO TOMAS</t>
   </si>
   <si>
-    <t xml:space="preserve">092287491</t>
+    <t xml:space="preserve">09-07-2007</t>
   </si>
   <si>
     <t xml:space="preserve">escafoide mano derecha</t>
@@ -202,34 +346,28 @@
     <t xml:space="preserve">MIRIAM COLLAZO 092493785</t>
   </si>
   <si>
-    <t xml:space="preserve">MARTIRENA LOUSTAUNAU JHOAN BENJAMIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">099135662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amigdalas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROSARIO LOUSTAUNAU 098649474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERNANDO MARTIRENA 092966522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA PAZ CARLOS EZEQUIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">099089545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARLOS LA PAZ 098584791</t>
+    <t xml:space="preserve">NARIO BIANCO ALEJANDRO MAURO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31-07-2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INHALADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEJANDRO NARIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIA CARVALO</t>
   </si>
   <si>
     <t xml:space="preserve">PAZ DURAND DARWIN CONRADO</t>
   </si>
   <si>
-    <t xml:space="preserve">098728933</t>
+    <t xml:space="preserve">01-06-2007</t>
   </si>
   <si>
     <t xml:space="preserve">esguince ambas rodillas y tobillo</t>
@@ -241,43 +379,52 @@
     <t xml:space="preserve">GONZALO PAZ 45862117</t>
   </si>
   <si>
-    <t xml:space="preserve">HERRERA VIERA LAUTARO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">092641117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desgarro posterior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARIELA VIERA 099502547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANIEL HERRERA 098057471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIMENEZ DOTTI SANTIAGO DARIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">098909012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glaucoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gotitas lauten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARIA PIA DOTTI 099006008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUSTAVO MEDERO 098462653</t>
+    <t xml:space="preserve">PEREZ ECHEVERRIA PEDRO BAUTISTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apendicitis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degarro cuadriceps Der.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIELA ECHEVERRIA 099393432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLANCHON MORELLI GUILLERMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-09-2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLIPTORQUIDIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARGARITA MORELLI 099406406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEJANDRO PLANCHON 098285514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODRIGUEZ PAN SANTIAGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08-08-2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANESA PAN 098872863</t>
   </si>
   <si>
     <t xml:space="preserve">SILVA MOLINA BENJAMIN ALEJANDRO</t>
   </si>
   <si>
-    <t xml:space="preserve">099482101</t>
+    <t xml:space="preserve">06-04-2008</t>
   </si>
   <si>
     <t xml:space="preserve">A+</t>
@@ -289,43 +436,10 @@
     <t xml:space="preserve">MATIAS REVETRIA 099455226</t>
   </si>
   <si>
-    <t xml:space="preserve">GARCIA BENITEZ ALAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">091637635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hipotiroidismo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T4 25mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUILLERMO GARCIA 098900959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NANCY BENITEZ 091246744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEREZ ECHEVERRIA PEDRO BAUTISTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">092222814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apendicitis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degarro cuadriceps Der.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANIELA ECHEVERRIA 099393432</t>
-  </si>
-  <si>
     <t xml:space="preserve">TALMON CAMILETTI SEBASTIAN</t>
   </si>
   <si>
-    <t xml:space="preserve">099129901</t>
+    <t xml:space="preserve">04-02-2008</t>
   </si>
   <si>
     <t xml:space="preserve">PABLO TALMON 099525502</t>
@@ -334,43 +448,10 @@
     <t xml:space="preserve">CLAUDIA CAMILETTI 098169470</t>
   </si>
   <si>
-    <t xml:space="preserve">CUELLO FIGUEIRAS ELIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">092763896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rh+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">at panico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desgarro leve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANA FIGUEIRAS 099936496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARTUS CANELA FACUNDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">098894874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PICADURAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROSSANA CANELA 099846779</t>
-  </si>
-  <si>
     <t xml:space="preserve">VERGARA CISNEROS JEREMIAS IVO</t>
   </si>
   <si>
-    <t xml:space="preserve">098513326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C. CATOLICO</t>
+    <t xml:space="preserve">09-02-2007</t>
   </si>
   <si>
     <t xml:space="preserve">IVAN VERGARA 098925169</t>
@@ -379,61 +460,10 @@
     <t xml:space="preserve">MARGARITA CISNEROS 099397320</t>
   </si>
   <si>
-    <t xml:space="preserve">BARRIOS THUL SANTINO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">091327048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AB+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTONELLA THUL 095966041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IGNACIO BARRIOS 099856038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRYDLENDER BUZETA GUILLERMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">091379742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RINITIS ALERGICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTIALERGICOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADRIANA BUZETA 098821975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARLOS FRYDLENDER 099550860</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NARIO BIANCO ALEJANDRO MAURO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">092823699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INHALADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEJANDRO NARIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARIA CARVALO</t>
-  </si>
-  <si>
     <t xml:space="preserve">WILSON GIMENEZ TOBIAS</t>
   </si>
   <si>
-    <t xml:space="preserve">096199477</t>
+    <t xml:space="preserve">26-09-2007</t>
   </si>
   <si>
     <t xml:space="preserve">N</t>
@@ -443,47 +473,15 @@
   </si>
   <si>
     <t xml:space="preserve">PATRICIA GIMENEZ 094889999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLANCHON MORELLI GUILLERMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">092030493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLIPTORQUIDIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARGARITA MORELLI 099406406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEJANDRO PLANCHON 098285514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BURGO CASTAÑOSE BRIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29-09-2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OMAR BURGO 092716837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONICA CASTAÑOSE 091477957</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="@"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -572,7 +570,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -585,23 +583,11 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -609,15 +595,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -812,8 +794,8 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -847,10 +829,10 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -884,1252 +866,1317 @@
         <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="3" t="n">
+        <v>56409674</v>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>99752209</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="I2" s="4"/>
+      <c r="J2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>57611517</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>98894874</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>57634258</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>91327048</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>181</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>57025081</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>91850226</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>69.4</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>57164348</v>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="D2" s="6" t="n">
-        <v>39142</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="5" t="n">
+      <c r="D6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>99485250</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>167</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>56394152</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>98547238</v>
+      </c>
+      <c r="F7" s="3" t="n">
         <v>1.7</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G7" s="3" t="n">
+        <v>69</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>56927951</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>92315286</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>56433099</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>92763896</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>56779314</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>96881712</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>57613480</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="5" t="n">
+      <c r="E11" s="3" t="n">
+        <v>91379742</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>169</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>57327756</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>91637635</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>57073232</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>98909012</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>69</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>57541495</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>94097301</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>57670436</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>92641117</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="3" t="n">
         <v>56509745</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C16" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="D3" s="6" t="n">
-        <v>39218</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="5" t="n">
+      <c r="D16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>98130723</v>
+      </c>
+      <c r="F16" s="3" t="n">
         <v>1.75</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G16" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>56927951</v>
-      </c>
-      <c r="C4" s="5" t="n">
+      <c r="H16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>57048578</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>99089545</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>56857168</v>
+      </c>
+      <c r="C18" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="D4" s="6" t="n">
-        <v>39390</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>63</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>57025081</v>
-      </c>
-      <c r="C5" s="5" t="n">
+      <c r="D18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>99135662</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>67</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>56752100</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>92287491</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>56782507</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>92823699</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>183</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>57659925</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>98728933</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>57368655</v>
+      </c>
+      <c r="C22" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="D5" s="6" t="n">
-        <v>39470</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>69.4</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>57541495</v>
-      </c>
-      <c r="C6" s="5" t="n">
+      <c r="D22" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>92222814</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>57551733</v>
+      </c>
+      <c r="C23" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="D6" s="6" t="n">
-        <v>39709</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="5" t="n">
-        <v>56394152</v>
-      </c>
-      <c r="C7" s="5" t="n">
+      <c r="D23" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>92030493</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>176</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>57462669</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>92781376</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>169</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="P24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>57204110</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>99482101</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>57064023</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>99129901</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>56362995</v>
+      </c>
+      <c r="C27" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="D7" s="6" t="n">
-        <v>39118</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <v>69</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="5" t="n">
-        <v>56779314</v>
-      </c>
-      <c r="C8" s="5" t="n">
+      <c r="D27" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>98513326</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>57324685</v>
+      </c>
+      <c r="C28" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="D8" s="6" t="n">
-        <v>39113</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="G8" s="5" t="n">
-        <v>70</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="5" t="n">
-        <v>56752100</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>39272</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="G9" s="5" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>56857168</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>39387</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="G10" s="5" t="n">
+      <c r="D28" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>96199477</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>179</v>
+      </c>
+      <c r="G28" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="5" t="n">
-        <v>57048578</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>39658</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <v>63</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="5" t="n">
-        <v>57659925</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>39234</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="G12" s="5" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="5" t="n">
-        <v>57670436</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>39771</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>74</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="5" t="n">
-        <v>57073232</v>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>39490</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>69</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="5" t="n">
-        <v>57204110</v>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>39544</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="G15" s="5" t="n">
-        <v>64</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="5" t="n">
-        <v>57327756</v>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>39464</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="G16" s="5" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="5" t="n">
-        <v>57368655</v>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>39617</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="G17" s="5" t="n">
-        <v>74</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="5" t="n">
-        <v>57064023</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>39482</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G18" s="5" t="n">
-        <v>65</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="5" t="n">
-        <v>56433099</v>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>39160</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="G19" s="5" t="n">
-        <v>75</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="5" t="n">
-        <v>57611517</v>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>39742</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>74.7</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" s="5" t="n">
-        <v>56362995</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>39122</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F21" s="5" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="G21" s="5" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>57634258</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="D22" s="9" t="n">
-        <v>39752</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>57613480</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="D23" s="9" t="n">
-        <v>39742</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F23" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="G23" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="L23" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>56782507</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="D24" s="9" t="n">
-        <v>39294</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F24" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="G24" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>57324685</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="D25" s="9" t="n">
-        <v>39351</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="G25" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>57551733</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="D26" s="9" t="n">
-        <v>39714</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B27" s="10" t="n">
-        <v>57164348</v>
-      </c>
-      <c r="C27" s="10" t="n">
-        <v>17</v>
-      </c>
-      <c r="D27" s="10" t="s">
+      <c r="H28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E27" s="10" t="n">
-        <v>99485250</v>
-      </c>
-      <c r="F27" s="10" t="n">
-        <v>167</v>
-      </c>
-      <c r="G27" s="10" t="n">
-        <v>62</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N27" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="O27" s="10" t="s">
+      <c r="J28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O28" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="P27" s="10" t="s">
+      <c r="P28" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E29" s="7"/>

--- a/jugadores.xlsx
+++ b/jugadores.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="152">
   <si>
     <t xml:space="preserve">Nombre completo</t>
   </si>
@@ -64,7 +64,10 @@
     <t xml:space="preserve">Lesiones previas</t>
   </si>
   <si>
-    <t xml:space="preserve">Contacto de referencia (nombre, relación, teléfono)</t>
+    <t xml:space="preserve">Contacto de referencia 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contacto de referencia 2</t>
   </si>
   <si>
     <t xml:space="preserve">fotos</t>
@@ -570,7 +573,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -583,19 +586,15 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -795,7 +794,7 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -866,15 +865,15 @@
         <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>56409674</v>
@@ -883,7 +882,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>99752209</v>
@@ -895,37 +894,37 @@
         <v>62</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>57611517</v>
@@ -934,7 +933,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>98894874</v>
@@ -946,35 +945,35 @@
         <v>74.7</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P3" s="4"/>
-      <c r="Q3" s="5" t="s">
-        <v>27</v>
+      <c r="Q3" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>57634258</v>
@@ -983,7 +982,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>91327048</v>
@@ -995,36 +994,36 @@
         <v>71</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>57025081</v>
@@ -1033,7 +1032,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>91850226</v>
@@ -1045,34 +1044,34 @@
         <v>69.4</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>57164348</v>
@@ -1081,7 +1080,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>99485250</v>
@@ -1093,34 +1092,34 @@
         <v>62</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>56394152</v>
@@ -1129,7 +1128,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>98547238</v>
@@ -1141,34 +1140,34 @@
         <v>69</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>56927951</v>
@@ -1177,7 +1176,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>92315286</v>
@@ -1189,34 +1188,34 @@
         <v>63</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>56433099</v>
@@ -1225,7 +1224,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>92763896</v>
@@ -1237,34 +1236,34 @@
         <v>75</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>56779314</v>
@@ -1273,7 +1272,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>96881712</v>
@@ -1285,36 +1284,36 @@
         <v>70</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="6" t="s">
         <v>60</v>
       </c>
+      <c r="I10" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="J10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>57613480</v>
@@ -1323,7 +1322,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>91379742</v>
@@ -1335,34 +1334,34 @@
         <v>52</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>57327756</v>
@@ -1371,7 +1370,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E12" s="3" t="n">
         <v>91637635</v>
@@ -1383,36 +1382,36 @@
         <v>57.9</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="6" t="s">
         <v>60</v>
       </c>
+      <c r="I12" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="J12" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>57073232</v>
@@ -1421,7 +1420,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E13" s="3" t="n">
         <v>98909012</v>
@@ -1433,36 +1432,36 @@
         <v>69</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>60</v>
+        <v>19</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>57541495</v>
@@ -1471,7 +1470,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E14" s="3" t="n">
         <v>94097301</v>
@@ -1479,34 +1478,34 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>57670436</v>
@@ -1515,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E15" s="3" t="n">
         <v>92641117</v>
@@ -1527,34 +1526,34 @@
         <v>74</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>56509745</v>
@@ -1563,7 +1562,7 @@
         <v>17</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E16" s="3" t="n">
         <v>98130723</v>
@@ -1575,34 +1574,34 @@
         <v>65</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>57048578</v>
@@ -1611,7 +1610,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E17" s="3" t="n">
         <v>99089545</v>
@@ -1623,32 +1622,32 @@
         <v>63</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>56857168</v>
@@ -1657,7 +1656,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3" t="n">
         <v>99135662</v>
@@ -1669,34 +1668,34 @@
         <v>67</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>56752100</v>
@@ -1705,7 +1704,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E19" s="3" t="n">
         <v>92287491</v>
@@ -1717,34 +1716,34 @@
         <v>72.5</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>60</v>
+        <v>19</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" s="3" t="n">
         <v>56782507</v>
@@ -1753,7 +1752,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E20" s="3" t="n">
         <v>92823699</v>
@@ -1765,34 +1764,34 @@
         <v>64</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B21" s="3" t="n">
         <v>57659925</v>
@@ -1801,7 +1800,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E21" s="3" t="n">
         <v>98728933</v>
@@ -1813,36 +1812,36 @@
         <v>68.2</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>60</v>
+        <v>19</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B22" s="3" t="n">
         <v>57368655</v>
@@ -1851,7 +1850,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E22" s="3" t="n">
         <v>92222814</v>
@@ -1863,32 +1862,32 @@
         <v>74</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>57551733</v>
@@ -1897,7 +1896,7 @@
         <v>16</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E23" s="3" t="n">
         <v>92030493</v>
@@ -1909,36 +1908,36 @@
         <v>61</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>126</v>
+        <v>19</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>57462669</v>
@@ -1947,7 +1946,7 @@
         <v>16</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E24" s="3" t="n">
         <v>92781376</v>
@@ -1959,32 +1958,32 @@
         <v>72</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>57204110</v>
@@ -1993,7 +1992,7 @@
         <v>16</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E25" s="3" t="n">
         <v>99482101</v>
@@ -2005,36 +2004,36 @@
         <v>64</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B26" s="3" t="n">
         <v>57064023</v>
@@ -2043,7 +2042,7 @@
         <v>16</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E26" s="3" t="n">
         <v>99129901</v>
@@ -2055,34 +2054,34 @@
         <v>65</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B27" s="3" t="n">
         <v>56362995</v>
@@ -2091,7 +2090,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E27" s="3" t="n">
         <v>98513326</v>
@@ -2103,34 +2102,34 @@
         <v>67.5</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B28" s="3" t="n">
         <v>57324685</v>
@@ -2139,7 +2138,7 @@
         <v>17</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E28" s="3" t="n">
         <v>96199477</v>
@@ -2151,2948 +2150,2948 @@
         <v>67</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E29" s="7"/>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E30" s="7"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E31" s="7"/>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E32" s="7"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E33" s="7"/>
+      <c r="E33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="7"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E35" s="7"/>
+      <c r="E35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E36" s="7"/>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E37" s="7"/>
+      <c r="E37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E38" s="7"/>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E39" s="7"/>
+      <c r="E39" s="6"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E40" s="7"/>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E41" s="7"/>
+      <c r="E41" s="6"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E42" s="7"/>
+      <c r="E42" s="6"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E43" s="7"/>
+      <c r="E43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E44" s="7"/>
+      <c r="E44" s="6"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E45" s="7"/>
+      <c r="E45" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E46" s="7"/>
+      <c r="E46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E47" s="7"/>
+      <c r="E47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E48" s="7"/>
+      <c r="E48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E49" s="7"/>
+      <c r="E49" s="6"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E50" s="7"/>
+      <c r="E50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E51" s="7"/>
+      <c r="E51" s="6"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E52" s="7"/>
+      <c r="E52" s="6"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E53" s="7"/>
+      <c r="E53" s="6"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E54" s="7"/>
+      <c r="E54" s="6"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E55" s="7"/>
+      <c r="E55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E56" s="7"/>
+      <c r="E56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E57" s="7"/>
+      <c r="E57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E58" s="7"/>
+      <c r="E58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E59" s="7"/>
+      <c r="E59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E60" s="7"/>
+      <c r="E60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E61" s="7"/>
+      <c r="E61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E62" s="7"/>
+      <c r="E62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E63" s="7"/>
+      <c r="E63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E64" s="7"/>
+      <c r="E64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E65" s="7"/>
+      <c r="E65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E66" s="7"/>
+      <c r="E66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E67" s="7"/>
+      <c r="E67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E68" s="7"/>
+      <c r="E68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E69" s="7"/>
+      <c r="E69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E70" s="7"/>
+      <c r="E70" s="6"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E71" s="7"/>
+      <c r="E71" s="6"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E72" s="7"/>
+      <c r="E72" s="6"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E73" s="7"/>
+      <c r="E73" s="6"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E74" s="7"/>
+      <c r="E74" s="6"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E75" s="7"/>
+      <c r="E75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E76" s="7"/>
+      <c r="E76" s="6"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E77" s="7"/>
+      <c r="E77" s="6"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E78" s="7"/>
+      <c r="E78" s="6"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E79" s="7"/>
+      <c r="E79" s="6"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E80" s="7"/>
+      <c r="E80" s="6"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E81" s="7"/>
+      <c r="E81" s="6"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E82" s="7"/>
+      <c r="E82" s="6"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E83" s="7"/>
+      <c r="E83" s="6"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E84" s="7"/>
+      <c r="E84" s="6"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E85" s="7"/>
+      <c r="E85" s="6"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E86" s="7"/>
+      <c r="E86" s="6"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E87" s="7"/>
+      <c r="E87" s="6"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E88" s="7"/>
+      <c r="E88" s="6"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E89" s="7"/>
+      <c r="E89" s="6"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E90" s="7"/>
+      <c r="E90" s="6"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E91" s="7"/>
+      <c r="E91" s="6"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E92" s="7"/>
+      <c r="E92" s="6"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E93" s="7"/>
+      <c r="E93" s="6"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E94" s="7"/>
+      <c r="E94" s="6"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E95" s="7"/>
+      <c r="E95" s="6"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E96" s="7"/>
+      <c r="E96" s="6"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E97" s="7"/>
+      <c r="E97" s="6"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E98" s="7"/>
+      <c r="E98" s="6"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E99" s="7"/>
+      <c r="E99" s="6"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E100" s="7"/>
+      <c r="E100" s="6"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E101" s="7"/>
+      <c r="E101" s="6"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E102" s="7"/>
+      <c r="E102" s="6"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E103" s="7"/>
+      <c r="E103" s="6"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E104" s="7"/>
+      <c r="E104" s="6"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E105" s="7"/>
+      <c r="E105" s="6"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E106" s="7"/>
+      <c r="E106" s="6"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E107" s="7"/>
+      <c r="E107" s="6"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E108" s="7"/>
+      <c r="E108" s="6"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E109" s="7"/>
+      <c r="E109" s="6"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E110" s="7"/>
+      <c r="E110" s="6"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E111" s="7"/>
+      <c r="E111" s="6"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E112" s="7"/>
+      <c r="E112" s="6"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E113" s="7"/>
+      <c r="E113" s="6"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E114" s="7"/>
+      <c r="E114" s="6"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E115" s="7"/>
+      <c r="E115" s="6"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E116" s="7"/>
+      <c r="E116" s="6"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E117" s="7"/>
+      <c r="E117" s="6"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E118" s="7"/>
+      <c r="E118" s="6"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E119" s="7"/>
+      <c r="E119" s="6"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E120" s="7"/>
+      <c r="E120" s="6"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E121" s="7"/>
+      <c r="E121" s="6"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E122" s="7"/>
+      <c r="E122" s="6"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E123" s="7"/>
+      <c r="E123" s="6"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E124" s="7"/>
+      <c r="E124" s="6"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E125" s="7"/>
+      <c r="E125" s="6"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E126" s="7"/>
+      <c r="E126" s="6"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E127" s="7"/>
+      <c r="E127" s="6"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E128" s="7"/>
+      <c r="E128" s="6"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E129" s="7"/>
+      <c r="E129" s="6"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E130" s="7"/>
+      <c r="E130" s="6"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E131" s="7"/>
+      <c r="E131" s="6"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E132" s="7"/>
+      <c r="E132" s="6"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E133" s="7"/>
+      <c r="E133" s="6"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E134" s="7"/>
+      <c r="E134" s="6"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E135" s="7"/>
+      <c r="E135" s="6"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E136" s="7"/>
+      <c r="E136" s="6"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E137" s="7"/>
+      <c r="E137" s="6"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E138" s="7"/>
+      <c r="E138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E139" s="7"/>
+      <c r="E139" s="6"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E140" s="7"/>
+      <c r="E140" s="6"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E141" s="7"/>
+      <c r="E141" s="6"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E142" s="7"/>
+      <c r="E142" s="6"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E143" s="7"/>
+      <c r="E143" s="6"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E144" s="7"/>
+      <c r="E144" s="6"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E145" s="7"/>
+      <c r="E145" s="6"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E146" s="7"/>
+      <c r="E146" s="6"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E147" s="7"/>
+      <c r="E147" s="6"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E148" s="7"/>
+      <c r="E148" s="6"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E149" s="7"/>
+      <c r="E149" s="6"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E150" s="7"/>
+      <c r="E150" s="6"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E151" s="7"/>
+      <c r="E151" s="6"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E152" s="7"/>
+      <c r="E152" s="6"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E153" s="7"/>
+      <c r="E153" s="6"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E154" s="7"/>
+      <c r="E154" s="6"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E155" s="7"/>
+      <c r="E155" s="6"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E156" s="7"/>
+      <c r="E156" s="6"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E157" s="7"/>
+      <c r="E157" s="6"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E158" s="7"/>
+      <c r="E158" s="6"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E159" s="7"/>
+      <c r="E159" s="6"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E160" s="7"/>
+      <c r="E160" s="6"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E161" s="7"/>
+      <c r="E161" s="6"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E162" s="7"/>
+      <c r="E162" s="6"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E163" s="7"/>
+      <c r="E163" s="6"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E164" s="7"/>
+      <c r="E164" s="6"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E165" s="7"/>
+      <c r="E165" s="6"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E166" s="7"/>
+      <c r="E166" s="6"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E167" s="7"/>
+      <c r="E167" s="6"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E168" s="7"/>
+      <c r="E168" s="6"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E169" s="7"/>
+      <c r="E169" s="6"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E170" s="7"/>
+      <c r="E170" s="6"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E171" s="7"/>
+      <c r="E171" s="6"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E172" s="7"/>
+      <c r="E172" s="6"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E173" s="7"/>
+      <c r="E173" s="6"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E174" s="7"/>
+      <c r="E174" s="6"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E175" s="7"/>
+      <c r="E175" s="6"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E176" s="7"/>
+      <c r="E176" s="6"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E177" s="7"/>
+      <c r="E177" s="6"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E178" s="7"/>
+      <c r="E178" s="6"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E179" s="7"/>
+      <c r="E179" s="6"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E180" s="7"/>
+      <c r="E180" s="6"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E181" s="7"/>
+      <c r="E181" s="6"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E182" s="7"/>
+      <c r="E182" s="6"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E183" s="7"/>
+      <c r="E183" s="6"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E184" s="7"/>
+      <c r="E184" s="6"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E185" s="7"/>
+      <c r="E185" s="6"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E186" s="7"/>
+      <c r="E186" s="6"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E187" s="7"/>
+      <c r="E187" s="6"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E188" s="7"/>
+      <c r="E188" s="6"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E189" s="7"/>
+      <c r="E189" s="6"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E190" s="7"/>
+      <c r="E190" s="6"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E191" s="7"/>
+      <c r="E191" s="6"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E192" s="7"/>
+      <c r="E192" s="6"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E193" s="7"/>
+      <c r="E193" s="6"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E194" s="7"/>
+      <c r="E194" s="6"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E195" s="7"/>
+      <c r="E195" s="6"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E196" s="7"/>
+      <c r="E196" s="6"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E197" s="7"/>
+      <c r="E197" s="6"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E198" s="7"/>
+      <c r="E198" s="6"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E199" s="7"/>
+      <c r="E199" s="6"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E200" s="7"/>
+      <c r="E200" s="6"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E201" s="7"/>
+      <c r="E201" s="6"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E202" s="7"/>
+      <c r="E202" s="6"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E203" s="7"/>
+      <c r="E203" s="6"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E204" s="7"/>
+      <c r="E204" s="6"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E205" s="7"/>
+      <c r="E205" s="6"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E206" s="7"/>
+      <c r="E206" s="6"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E207" s="7"/>
+      <c r="E207" s="6"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E208" s="7"/>
+      <c r="E208" s="6"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E209" s="7"/>
+      <c r="E209" s="6"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E210" s="7"/>
+      <c r="E210" s="6"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E211" s="7"/>
+      <c r="E211" s="6"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E212" s="7"/>
+      <c r="E212" s="6"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E213" s="7"/>
+      <c r="E213" s="6"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E214" s="7"/>
+      <c r="E214" s="6"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E215" s="7"/>
+      <c r="E215" s="6"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E216" s="7"/>
+      <c r="E216" s="6"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E217" s="7"/>
+      <c r="E217" s="6"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E218" s="7"/>
+      <c r="E218" s="6"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E219" s="7"/>
+      <c r="E219" s="6"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E220" s="7"/>
+      <c r="E220" s="6"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E221" s="7"/>
+      <c r="E221" s="6"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E222" s="7"/>
+      <c r="E222" s="6"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E223" s="7"/>
+      <c r="E223" s="6"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E224" s="7"/>
+      <c r="E224" s="6"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E225" s="7"/>
+      <c r="E225" s="6"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E226" s="7"/>
+      <c r="E226" s="6"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E227" s="7"/>
+      <c r="E227" s="6"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E228" s="7"/>
+      <c r="E228" s="6"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E229" s="7"/>
+      <c r="E229" s="6"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E230" s="7"/>
+      <c r="E230" s="6"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E231" s="7"/>
+      <c r="E231" s="6"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E232" s="7"/>
+      <c r="E232" s="6"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E233" s="7"/>
+      <c r="E233" s="6"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E234" s="7"/>
+      <c r="E234" s="6"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E235" s="7"/>
+      <c r="E235" s="6"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E236" s="7"/>
+      <c r="E236" s="6"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E237" s="7"/>
+      <c r="E237" s="6"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E238" s="7"/>
+      <c r="E238" s="6"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E239" s="7"/>
+      <c r="E239" s="6"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E240" s="7"/>
+      <c r="E240" s="6"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E241" s="7"/>
+      <c r="E241" s="6"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E242" s="7"/>
+      <c r="E242" s="6"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E243" s="7"/>
+      <c r="E243" s="6"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E244" s="7"/>
+      <c r="E244" s="6"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E245" s="7"/>
+      <c r="E245" s="6"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E246" s="7"/>
+      <c r="E246" s="6"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E247" s="7"/>
+      <c r="E247" s="6"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E248" s="7"/>
+      <c r="E248" s="6"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E249" s="7"/>
+      <c r="E249" s="6"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E250" s="7"/>
+      <c r="E250" s="6"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E251" s="7"/>
+      <c r="E251" s="6"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E252" s="7"/>
+      <c r="E252" s="6"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E253" s="7"/>
+      <c r="E253" s="6"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E254" s="7"/>
+      <c r="E254" s="6"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E255" s="7"/>
+      <c r="E255" s="6"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E256" s="7"/>
+      <c r="E256" s="6"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E257" s="7"/>
+      <c r="E257" s="6"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E258" s="7"/>
+      <c r="E258" s="6"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E259" s="7"/>
+      <c r="E259" s="6"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E260" s="7"/>
+      <c r="E260" s="6"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E261" s="7"/>
+      <c r="E261" s="6"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E262" s="7"/>
+      <c r="E262" s="6"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E263" s="7"/>
+      <c r="E263" s="6"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E264" s="7"/>
+      <c r="E264" s="6"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E265" s="7"/>
+      <c r="E265" s="6"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E266" s="7"/>
+      <c r="E266" s="6"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E267" s="7"/>
+      <c r="E267" s="6"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E268" s="7"/>
+      <c r="E268" s="6"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E269" s="7"/>
+      <c r="E269" s="6"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E270" s="7"/>
+      <c r="E270" s="6"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E271" s="7"/>
+      <c r="E271" s="6"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E272" s="7"/>
+      <c r="E272" s="6"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E273" s="7"/>
+      <c r="E273" s="6"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E274" s="7"/>
+      <c r="E274" s="6"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E275" s="7"/>
+      <c r="E275" s="6"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E276" s="7"/>
+      <c r="E276" s="6"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E277" s="7"/>
+      <c r="E277" s="6"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E278" s="7"/>
+      <c r="E278" s="6"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E279" s="7"/>
+      <c r="E279" s="6"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E280" s="7"/>
+      <c r="E280" s="6"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E281" s="7"/>
+      <c r="E281" s="6"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E282" s="7"/>
+      <c r="E282" s="6"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E283" s="7"/>
+      <c r="E283" s="6"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E284" s="7"/>
+      <c r="E284" s="6"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E285" s="7"/>
+      <c r="E285" s="6"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E286" s="7"/>
+      <c r="E286" s="6"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E287" s="7"/>
+      <c r="E287" s="6"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E288" s="7"/>
+      <c r="E288" s="6"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E289" s="7"/>
+      <c r="E289" s="6"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E290" s="7"/>
+      <c r="E290" s="6"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E291" s="7"/>
+      <c r="E291" s="6"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E292" s="7"/>
+      <c r="E292" s="6"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E293" s="7"/>
+      <c r="E293" s="6"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E294" s="7"/>
+      <c r="E294" s="6"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E295" s="7"/>
+      <c r="E295" s="6"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E296" s="7"/>
+      <c r="E296" s="6"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E297" s="7"/>
+      <c r="E297" s="6"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E298" s="7"/>
+      <c r="E298" s="6"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E299" s="7"/>
+      <c r="E299" s="6"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E300" s="7"/>
+      <c r="E300" s="6"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E301" s="7"/>
+      <c r="E301" s="6"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E302" s="7"/>
+      <c r="E302" s="6"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E303" s="7"/>
+      <c r="E303" s="6"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E304" s="7"/>
+      <c r="E304" s="6"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E305" s="7"/>
+      <c r="E305" s="6"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E306" s="7"/>
+      <c r="E306" s="6"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E307" s="7"/>
+      <c r="E307" s="6"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E308" s="7"/>
+      <c r="E308" s="6"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E309" s="7"/>
+      <c r="E309" s="6"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E310" s="7"/>
+      <c r="E310" s="6"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E311" s="7"/>
+      <c r="E311" s="6"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E312" s="7"/>
+      <c r="E312" s="6"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E313" s="7"/>
+      <c r="E313" s="6"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E314" s="7"/>
+      <c r="E314" s="6"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E315" s="7"/>
+      <c r="E315" s="6"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E316" s="7"/>
+      <c r="E316" s="6"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E317" s="7"/>
+      <c r="E317" s="6"/>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E318" s="7"/>
+      <c r="E318" s="6"/>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E319" s="7"/>
+      <c r="E319" s="6"/>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E320" s="7"/>
+      <c r="E320" s="6"/>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E321" s="7"/>
+      <c r="E321" s="6"/>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E322" s="7"/>
+      <c r="E322" s="6"/>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E323" s="7"/>
+      <c r="E323" s="6"/>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E324" s="7"/>
+      <c r="E324" s="6"/>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E325" s="7"/>
+      <c r="E325" s="6"/>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E326" s="7"/>
+      <c r="E326" s="6"/>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E327" s="7"/>
+      <c r="E327" s="6"/>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E328" s="7"/>
+      <c r="E328" s="6"/>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E329" s="7"/>
+      <c r="E329" s="6"/>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E330" s="7"/>
+      <c r="E330" s="6"/>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E331" s="7"/>
+      <c r="E331" s="6"/>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E332" s="7"/>
+      <c r="E332" s="6"/>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E333" s="7"/>
+      <c r="E333" s="6"/>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E334" s="7"/>
+      <c r="E334" s="6"/>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E335" s="7"/>
+      <c r="E335" s="6"/>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E336" s="7"/>
+      <c r="E336" s="6"/>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E337" s="7"/>
+      <c r="E337" s="6"/>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E338" s="7"/>
+      <c r="E338" s="6"/>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E339" s="7"/>
+      <c r="E339" s="6"/>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E340" s="7"/>
+      <c r="E340" s="6"/>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E341" s="7"/>
+      <c r="E341" s="6"/>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E342" s="7"/>
+      <c r="E342" s="6"/>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E343" s="7"/>
+      <c r="E343" s="6"/>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E344" s="7"/>
+      <c r="E344" s="6"/>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E345" s="7"/>
+      <c r="E345" s="6"/>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E346" s="7"/>
+      <c r="E346" s="6"/>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E347" s="7"/>
+      <c r="E347" s="6"/>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E348" s="7"/>
+      <c r="E348" s="6"/>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E349" s="7"/>
+      <c r="E349" s="6"/>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E350" s="7"/>
+      <c r="E350" s="6"/>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E351" s="7"/>
+      <c r="E351" s="6"/>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E352" s="7"/>
+      <c r="E352" s="6"/>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E353" s="7"/>
+      <c r="E353" s="6"/>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E354" s="7"/>
+      <c r="E354" s="6"/>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E355" s="7"/>
+      <c r="E355" s="6"/>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E356" s="7"/>
+      <c r="E356" s="6"/>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E357" s="7"/>
+      <c r="E357" s="6"/>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E358" s="7"/>
+      <c r="E358" s="6"/>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E359" s="7"/>
+      <c r="E359" s="6"/>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E360" s="7"/>
+      <c r="E360" s="6"/>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E361" s="7"/>
+      <c r="E361" s="6"/>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E362" s="7"/>
+      <c r="E362" s="6"/>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E363" s="7"/>
+      <c r="E363" s="6"/>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E364" s="7"/>
+      <c r="E364" s="6"/>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E365" s="7"/>
+      <c r="E365" s="6"/>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E366" s="7"/>
+      <c r="E366" s="6"/>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E367" s="7"/>
+      <c r="E367" s="6"/>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E368" s="7"/>
+      <c r="E368" s="6"/>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E369" s="7"/>
+      <c r="E369" s="6"/>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E370" s="7"/>
+      <c r="E370" s="6"/>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E371" s="7"/>
+      <c r="E371" s="6"/>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E372" s="7"/>
+      <c r="E372" s="6"/>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E373" s="7"/>
+      <c r="E373" s="6"/>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E374" s="7"/>
+      <c r="E374" s="6"/>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E375" s="7"/>
+      <c r="E375" s="6"/>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E376" s="7"/>
+      <c r="E376" s="6"/>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E377" s="7"/>
+      <c r="E377" s="6"/>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E378" s="7"/>
+      <c r="E378" s="6"/>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E379" s="7"/>
+      <c r="E379" s="6"/>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E380" s="7"/>
+      <c r="E380" s="6"/>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E381" s="7"/>
+      <c r="E381" s="6"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E382" s="7"/>
+      <c r="E382" s="6"/>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E383" s="7"/>
+      <c r="E383" s="6"/>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E384" s="7"/>
+      <c r="E384" s="6"/>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E385" s="7"/>
+      <c r="E385" s="6"/>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E386" s="7"/>
+      <c r="E386" s="6"/>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E387" s="7"/>
+      <c r="E387" s="6"/>
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E388" s="7"/>
+      <c r="E388" s="6"/>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E389" s="7"/>
+      <c r="E389" s="6"/>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E390" s="7"/>
+      <c r="E390" s="6"/>
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E391" s="7"/>
+      <c r="E391" s="6"/>
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E392" s="7"/>
+      <c r="E392" s="6"/>
     </row>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E393" s="7"/>
+      <c r="E393" s="6"/>
     </row>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E394" s="7"/>
+      <c r="E394" s="6"/>
     </row>
     <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E395" s="7"/>
+      <c r="E395" s="6"/>
     </row>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E396" s="7"/>
+      <c r="E396" s="6"/>
     </row>
     <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E397" s="7"/>
+      <c r="E397" s="6"/>
     </row>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E398" s="7"/>
+      <c r="E398" s="6"/>
     </row>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E399" s="7"/>
+      <c r="E399" s="6"/>
     </row>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E400" s="7"/>
+      <c r="E400" s="6"/>
     </row>
     <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E401" s="7"/>
+      <c r="E401" s="6"/>
     </row>
     <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E402" s="7"/>
+      <c r="E402" s="6"/>
     </row>
     <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E403" s="7"/>
+      <c r="E403" s="6"/>
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E404" s="7"/>
+      <c r="E404" s="6"/>
     </row>
     <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E405" s="7"/>
+      <c r="E405" s="6"/>
     </row>
     <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E406" s="7"/>
+      <c r="E406" s="6"/>
     </row>
     <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E407" s="7"/>
+      <c r="E407" s="6"/>
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E408" s="7"/>
+      <c r="E408" s="6"/>
     </row>
     <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E409" s="7"/>
+      <c r="E409" s="6"/>
     </row>
     <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E410" s="7"/>
+      <c r="E410" s="6"/>
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E411" s="7"/>
+      <c r="E411" s="6"/>
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E412" s="7"/>
+      <c r="E412" s="6"/>
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E413" s="7"/>
+      <c r="E413" s="6"/>
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E414" s="7"/>
+      <c r="E414" s="6"/>
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E415" s="7"/>
+      <c r="E415" s="6"/>
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E416" s="7"/>
+      <c r="E416" s="6"/>
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E417" s="7"/>
+      <c r="E417" s="6"/>
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E418" s="7"/>
+      <c r="E418" s="6"/>
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E419" s="7"/>
+      <c r="E419" s="6"/>
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E420" s="7"/>
+      <c r="E420" s="6"/>
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E421" s="7"/>
+      <c r="E421" s="6"/>
     </row>
     <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E422" s="7"/>
+      <c r="E422" s="6"/>
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E423" s="7"/>
+      <c r="E423" s="6"/>
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E424" s="7"/>
+      <c r="E424" s="6"/>
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E425" s="7"/>
+      <c r="E425" s="6"/>
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E426" s="7"/>
+      <c r="E426" s="6"/>
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E427" s="7"/>
+      <c r="E427" s="6"/>
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E428" s="7"/>
+      <c r="E428" s="6"/>
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E429" s="7"/>
+      <c r="E429" s="6"/>
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E430" s="7"/>
+      <c r="E430" s="6"/>
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E431" s="7"/>
+      <c r="E431" s="6"/>
     </row>
     <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E432" s="7"/>
+      <c r="E432" s="6"/>
     </row>
     <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E433" s="7"/>
+      <c r="E433" s="6"/>
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E434" s="7"/>
+      <c r="E434" s="6"/>
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E435" s="7"/>
+      <c r="E435" s="6"/>
     </row>
     <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E436" s="7"/>
+      <c r="E436" s="6"/>
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E437" s="7"/>
+      <c r="E437" s="6"/>
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E438" s="7"/>
+      <c r="E438" s="6"/>
     </row>
     <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E439" s="7"/>
+      <c r="E439" s="6"/>
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E440" s="7"/>
+      <c r="E440" s="6"/>
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E441" s="7"/>
+      <c r="E441" s="6"/>
     </row>
     <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E442" s="7"/>
+      <c r="E442" s="6"/>
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E443" s="7"/>
+      <c r="E443" s="6"/>
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E444" s="7"/>
+      <c r="E444" s="6"/>
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E445" s="7"/>
+      <c r="E445" s="6"/>
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E446" s="7"/>
+      <c r="E446" s="6"/>
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E447" s="7"/>
+      <c r="E447" s="6"/>
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E448" s="7"/>
+      <c r="E448" s="6"/>
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E449" s="7"/>
+      <c r="E449" s="6"/>
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E450" s="7"/>
+      <c r="E450" s="6"/>
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E451" s="7"/>
+      <c r="E451" s="6"/>
     </row>
     <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E452" s="7"/>
+      <c r="E452" s="6"/>
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E453" s="7"/>
+      <c r="E453" s="6"/>
     </row>
     <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E454" s="7"/>
+      <c r="E454" s="6"/>
     </row>
     <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E455" s="7"/>
+      <c r="E455" s="6"/>
     </row>
     <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E456" s="7"/>
+      <c r="E456" s="6"/>
     </row>
     <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E457" s="7"/>
+      <c r="E457" s="6"/>
     </row>
     <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E458" s="7"/>
+      <c r="E458" s="6"/>
     </row>
     <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E459" s="7"/>
+      <c r="E459" s="6"/>
     </row>
     <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E460" s="7"/>
+      <c r="E460" s="6"/>
     </row>
     <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E461" s="7"/>
+      <c r="E461" s="6"/>
     </row>
     <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E462" s="7"/>
+      <c r="E462" s="6"/>
     </row>
     <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E463" s="7"/>
+      <c r="E463" s="6"/>
     </row>
     <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E464" s="7"/>
+      <c r="E464" s="6"/>
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E465" s="7"/>
+      <c r="E465" s="6"/>
     </row>
     <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E466" s="7"/>
+      <c r="E466" s="6"/>
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E467" s="7"/>
+      <c r="E467" s="6"/>
     </row>
     <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E468" s="7"/>
+      <c r="E468" s="6"/>
     </row>
     <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E469" s="7"/>
+      <c r="E469" s="6"/>
     </row>
     <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E470" s="7"/>
+      <c r="E470" s="6"/>
     </row>
     <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E471" s="7"/>
+      <c r="E471" s="6"/>
     </row>
     <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E472" s="7"/>
+      <c r="E472" s="6"/>
     </row>
     <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E473" s="7"/>
+      <c r="E473" s="6"/>
     </row>
     <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E474" s="7"/>
+      <c r="E474" s="6"/>
     </row>
     <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E475" s="7"/>
+      <c r="E475" s="6"/>
     </row>
     <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E476" s="7"/>
+      <c r="E476" s="6"/>
     </row>
     <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E477" s="7"/>
+      <c r="E477" s="6"/>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E478" s="7"/>
+      <c r="E478" s="6"/>
     </row>
     <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E479" s="7"/>
+      <c r="E479" s="6"/>
     </row>
     <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E480" s="7"/>
+      <c r="E480" s="6"/>
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E481" s="7"/>
+      <c r="E481" s="6"/>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E482" s="7"/>
+      <c r="E482" s="6"/>
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E483" s="7"/>
+      <c r="E483" s="6"/>
     </row>
     <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E484" s="7"/>
+      <c r="E484" s="6"/>
     </row>
     <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E485" s="7"/>
+      <c r="E485" s="6"/>
     </row>
     <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E486" s="7"/>
+      <c r="E486" s="6"/>
     </row>
     <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E487" s="7"/>
+      <c r="E487" s="6"/>
     </row>
     <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E488" s="7"/>
+      <c r="E488" s="6"/>
     </row>
     <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E489" s="7"/>
+      <c r="E489" s="6"/>
     </row>
     <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E490" s="7"/>
+      <c r="E490" s="6"/>
     </row>
     <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E491" s="7"/>
+      <c r="E491" s="6"/>
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E492" s="7"/>
+      <c r="E492" s="6"/>
     </row>
     <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E493" s="7"/>
+      <c r="E493" s="6"/>
     </row>
     <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E494" s="7"/>
+      <c r="E494" s="6"/>
     </row>
     <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E495" s="7"/>
+      <c r="E495" s="6"/>
     </row>
     <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E496" s="7"/>
+      <c r="E496" s="6"/>
     </row>
     <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E497" s="7"/>
+      <c r="E497" s="6"/>
     </row>
     <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E498" s="7"/>
+      <c r="E498" s="6"/>
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E499" s="7"/>
+      <c r="E499" s="6"/>
     </row>
     <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E500" s="7"/>
+      <c r="E500" s="6"/>
     </row>
     <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E501" s="7"/>
+      <c r="E501" s="6"/>
     </row>
     <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E502" s="7"/>
+      <c r="E502" s="6"/>
     </row>
     <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E503" s="7"/>
+      <c r="E503" s="6"/>
     </row>
     <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E504" s="7"/>
+      <c r="E504" s="6"/>
     </row>
     <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E505" s="7"/>
+      <c r="E505" s="6"/>
     </row>
     <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E506" s="7"/>
+      <c r="E506" s="6"/>
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E507" s="7"/>
+      <c r="E507" s="6"/>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E508" s="7"/>
+      <c r="E508" s="6"/>
     </row>
     <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E509" s="7"/>
+      <c r="E509" s="6"/>
     </row>
     <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E510" s="7"/>
+      <c r="E510" s="6"/>
     </row>
     <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E511" s="7"/>
+      <c r="E511" s="6"/>
     </row>
     <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E512" s="7"/>
+      <c r="E512" s="6"/>
     </row>
     <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E513" s="7"/>
+      <c r="E513" s="6"/>
     </row>
     <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E514" s="7"/>
+      <c r="E514" s="6"/>
     </row>
     <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E515" s="7"/>
+      <c r="E515" s="6"/>
     </row>
     <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E516" s="7"/>
+      <c r="E516" s="6"/>
     </row>
     <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E517" s="7"/>
+      <c r="E517" s="6"/>
     </row>
     <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E518" s="7"/>
+      <c r="E518" s="6"/>
     </row>
     <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E519" s="7"/>
+      <c r="E519" s="6"/>
     </row>
     <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E520" s="7"/>
+      <c r="E520" s="6"/>
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E521" s="7"/>
+      <c r="E521" s="6"/>
     </row>
     <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E522" s="7"/>
+      <c r="E522" s="6"/>
     </row>
     <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E523" s="7"/>
+      <c r="E523" s="6"/>
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E524" s="7"/>
+      <c r="E524" s="6"/>
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E525" s="7"/>
+      <c r="E525" s="6"/>
     </row>
     <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E526" s="7"/>
+      <c r="E526" s="6"/>
     </row>
     <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E527" s="7"/>
+      <c r="E527" s="6"/>
     </row>
     <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E528" s="7"/>
+      <c r="E528" s="6"/>
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E529" s="7"/>
+      <c r="E529" s="6"/>
     </row>
     <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E530" s="7"/>
+      <c r="E530" s="6"/>
     </row>
     <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E531" s="7"/>
+      <c r="E531" s="6"/>
     </row>
     <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E532" s="7"/>
+      <c r="E532" s="6"/>
     </row>
     <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E533" s="7"/>
+      <c r="E533" s="6"/>
     </row>
     <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E534" s="7"/>
+      <c r="E534" s="6"/>
     </row>
     <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E535" s="7"/>
+      <c r="E535" s="6"/>
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E536" s="7"/>
+      <c r="E536" s="6"/>
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E537" s="7"/>
+      <c r="E537" s="6"/>
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E538" s="7"/>
+      <c r="E538" s="6"/>
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E539" s="7"/>
+      <c r="E539" s="6"/>
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E540" s="7"/>
+      <c r="E540" s="6"/>
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E541" s="7"/>
+      <c r="E541" s="6"/>
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E542" s="7"/>
+      <c r="E542" s="6"/>
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E543" s="7"/>
+      <c r="E543" s="6"/>
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E544" s="7"/>
+      <c r="E544" s="6"/>
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E545" s="7"/>
+      <c r="E545" s="6"/>
     </row>
     <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E546" s="7"/>
+      <c r="E546" s="6"/>
     </row>
     <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E547" s="7"/>
+      <c r="E547" s="6"/>
     </row>
     <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E548" s="7"/>
+      <c r="E548" s="6"/>
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E549" s="7"/>
+      <c r="E549" s="6"/>
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E550" s="7"/>
+      <c r="E550" s="6"/>
     </row>
     <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E551" s="7"/>
+      <c r="E551" s="6"/>
     </row>
     <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E552" s="7"/>
+      <c r="E552" s="6"/>
     </row>
     <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E553" s="7"/>
+      <c r="E553" s="6"/>
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E554" s="7"/>
+      <c r="E554" s="6"/>
     </row>
     <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E555" s="7"/>
+      <c r="E555" s="6"/>
     </row>
     <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E556" s="7"/>
+      <c r="E556" s="6"/>
     </row>
     <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E557" s="7"/>
+      <c r="E557" s="6"/>
     </row>
     <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E558" s="7"/>
+      <c r="E558" s="6"/>
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E559" s="7"/>
+      <c r="E559" s="6"/>
     </row>
     <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E560" s="7"/>
+      <c r="E560" s="6"/>
     </row>
     <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E561" s="7"/>
+      <c r="E561" s="6"/>
     </row>
     <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E562" s="7"/>
+      <c r="E562" s="6"/>
     </row>
     <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E563" s="7"/>
+      <c r="E563" s="6"/>
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E564" s="7"/>
+      <c r="E564" s="6"/>
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E565" s="7"/>
+      <c r="E565" s="6"/>
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E566" s="7"/>
+      <c r="E566" s="6"/>
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E567" s="7"/>
+      <c r="E567" s="6"/>
     </row>
     <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E568" s="7"/>
+      <c r="E568" s="6"/>
     </row>
     <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E569" s="7"/>
+      <c r="E569" s="6"/>
     </row>
     <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E570" s="7"/>
+      <c r="E570" s="6"/>
     </row>
     <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E571" s="7"/>
+      <c r="E571" s="6"/>
     </row>
     <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E572" s="7"/>
+      <c r="E572" s="6"/>
     </row>
     <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E573" s="7"/>
+      <c r="E573" s="6"/>
     </row>
     <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E574" s="7"/>
+      <c r="E574" s="6"/>
     </row>
     <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E575" s="7"/>
+      <c r="E575" s="6"/>
     </row>
     <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E576" s="7"/>
+      <c r="E576" s="6"/>
     </row>
     <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E577" s="7"/>
+      <c r="E577" s="6"/>
     </row>
     <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E578" s="7"/>
+      <c r="E578" s="6"/>
     </row>
     <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E579" s="7"/>
+      <c r="E579" s="6"/>
     </row>
     <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E580" s="7"/>
+      <c r="E580" s="6"/>
     </row>
     <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E581" s="7"/>
+      <c r="E581" s="6"/>
     </row>
     <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E582" s="7"/>
+      <c r="E582" s="6"/>
     </row>
     <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E583" s="7"/>
+      <c r="E583" s="6"/>
     </row>
     <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E584" s="7"/>
+      <c r="E584" s="6"/>
     </row>
     <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E585" s="7"/>
+      <c r="E585" s="6"/>
     </row>
     <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E586" s="7"/>
+      <c r="E586" s="6"/>
     </row>
     <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E587" s="7"/>
+      <c r="E587" s="6"/>
     </row>
     <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E588" s="7"/>
+      <c r="E588" s="6"/>
     </row>
     <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E589" s="7"/>
+      <c r="E589" s="6"/>
     </row>
     <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E590" s="7"/>
+      <c r="E590" s="6"/>
     </row>
     <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E591" s="7"/>
+      <c r="E591" s="6"/>
     </row>
     <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E592" s="7"/>
+      <c r="E592" s="6"/>
     </row>
     <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E593" s="7"/>
+      <c r="E593" s="6"/>
     </row>
     <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E594" s="7"/>
+      <c r="E594" s="6"/>
     </row>
     <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E595" s="7"/>
+      <c r="E595" s="6"/>
     </row>
     <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E596" s="7"/>
+      <c r="E596" s="6"/>
     </row>
     <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E597" s="7"/>
+      <c r="E597" s="6"/>
     </row>
     <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E598" s="7"/>
+      <c r="E598" s="6"/>
     </row>
     <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E599" s="7"/>
+      <c r="E599" s="6"/>
     </row>
     <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E600" s="7"/>
+      <c r="E600" s="6"/>
     </row>
     <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E601" s="7"/>
+      <c r="E601" s="6"/>
     </row>
     <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E602" s="7"/>
+      <c r="E602" s="6"/>
     </row>
     <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E603" s="7"/>
+      <c r="E603" s="6"/>
     </row>
     <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E604" s="7"/>
+      <c r="E604" s="6"/>
     </row>
     <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E605" s="7"/>
+      <c r="E605" s="6"/>
     </row>
     <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E606" s="7"/>
+      <c r="E606" s="6"/>
     </row>
     <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E607" s="7"/>
+      <c r="E607" s="6"/>
     </row>
     <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E608" s="7"/>
+      <c r="E608" s="6"/>
     </row>
     <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E609" s="7"/>
+      <c r="E609" s="6"/>
     </row>
     <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E610" s="7"/>
+      <c r="E610" s="6"/>
     </row>
     <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E611" s="7"/>
+      <c r="E611" s="6"/>
     </row>
     <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E612" s="7"/>
+      <c r="E612" s="6"/>
     </row>
     <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E613" s="7"/>
+      <c r="E613" s="6"/>
     </row>
     <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E614" s="7"/>
+      <c r="E614" s="6"/>
     </row>
     <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E615" s="7"/>
+      <c r="E615" s="6"/>
     </row>
     <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E616" s="7"/>
+      <c r="E616" s="6"/>
     </row>
     <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E617" s="7"/>
+      <c r="E617" s="6"/>
     </row>
     <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E618" s="7"/>
+      <c r="E618" s="6"/>
     </row>
     <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E619" s="7"/>
+      <c r="E619" s="6"/>
     </row>
     <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E620" s="7"/>
+      <c r="E620" s="6"/>
     </row>
     <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E621" s="7"/>
+      <c r="E621" s="6"/>
     </row>
     <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E622" s="7"/>
+      <c r="E622" s="6"/>
     </row>
     <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E623" s="7"/>
+      <c r="E623" s="6"/>
     </row>
     <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E624" s="7"/>
+      <c r="E624" s="6"/>
     </row>
     <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E625" s="7"/>
+      <c r="E625" s="6"/>
     </row>
     <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E626" s="7"/>
+      <c r="E626" s="6"/>
     </row>
     <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E627" s="7"/>
+      <c r="E627" s="6"/>
     </row>
     <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E628" s="7"/>
+      <c r="E628" s="6"/>
     </row>
     <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E629" s="7"/>
+      <c r="E629" s="6"/>
     </row>
     <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E630" s="7"/>
+      <c r="E630" s="6"/>
     </row>
     <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E631" s="7"/>
+      <c r="E631" s="6"/>
     </row>
     <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E632" s="7"/>
+      <c r="E632" s="6"/>
     </row>
     <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E633" s="7"/>
+      <c r="E633" s="6"/>
     </row>
     <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E634" s="7"/>
+      <c r="E634" s="6"/>
     </row>
     <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E635" s="7"/>
+      <c r="E635" s="6"/>
     </row>
     <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E636" s="7"/>
+      <c r="E636" s="6"/>
     </row>
     <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E637" s="7"/>
+      <c r="E637" s="6"/>
     </row>
     <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E638" s="7"/>
+      <c r="E638" s="6"/>
     </row>
     <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E639" s="7"/>
+      <c r="E639" s="6"/>
     </row>
     <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E640" s="7"/>
+      <c r="E640" s="6"/>
     </row>
     <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E641" s="7"/>
+      <c r="E641" s="6"/>
     </row>
     <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E642" s="7"/>
+      <c r="E642" s="6"/>
     </row>
     <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E643" s="7"/>
+      <c r="E643" s="6"/>
     </row>
     <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E644" s="7"/>
+      <c r="E644" s="6"/>
     </row>
     <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E645" s="7"/>
+      <c r="E645" s="6"/>
     </row>
     <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E646" s="7"/>
+      <c r="E646" s="6"/>
     </row>
     <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E647" s="7"/>
+      <c r="E647" s="6"/>
     </row>
     <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E648" s="7"/>
+      <c r="E648" s="6"/>
     </row>
     <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E649" s="7"/>
+      <c r="E649" s="6"/>
     </row>
     <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E650" s="7"/>
+      <c r="E650" s="6"/>
     </row>
     <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E651" s="7"/>
+      <c r="E651" s="6"/>
     </row>
     <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E652" s="7"/>
+      <c r="E652" s="6"/>
     </row>
     <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E653" s="7"/>
+      <c r="E653" s="6"/>
     </row>
     <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E654" s="7"/>
+      <c r="E654" s="6"/>
     </row>
     <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E655" s="7"/>
+      <c r="E655" s="6"/>
     </row>
     <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E656" s="7"/>
+      <c r="E656" s="6"/>
     </row>
     <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E657" s="7"/>
+      <c r="E657" s="6"/>
     </row>
     <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E658" s="7"/>
+      <c r="E658" s="6"/>
     </row>
     <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E659" s="7"/>
+      <c r="E659" s="6"/>
     </row>
     <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E660" s="7"/>
+      <c r="E660" s="6"/>
     </row>
     <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E661" s="7"/>
+      <c r="E661" s="6"/>
     </row>
     <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E662" s="7"/>
+      <c r="E662" s="6"/>
     </row>
     <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E663" s="7"/>
+      <c r="E663" s="6"/>
     </row>
     <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E664" s="7"/>
+      <c r="E664" s="6"/>
     </row>
     <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E665" s="7"/>
+      <c r="E665" s="6"/>
     </row>
     <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E666" s="7"/>
+      <c r="E666" s="6"/>
     </row>
     <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E667" s="7"/>
+      <c r="E667" s="6"/>
     </row>
     <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E668" s="7"/>
+      <c r="E668" s="6"/>
     </row>
     <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E669" s="7"/>
+      <c r="E669" s="6"/>
     </row>
     <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E670" s="7"/>
+      <c r="E670" s="6"/>
     </row>
     <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E671" s="7"/>
+      <c r="E671" s="6"/>
     </row>
     <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E672" s="7"/>
+      <c r="E672" s="6"/>
     </row>
     <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E673" s="7"/>
+      <c r="E673" s="6"/>
     </row>
     <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E674" s="7"/>
+      <c r="E674" s="6"/>
     </row>
     <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E675" s="7"/>
+      <c r="E675" s="6"/>
     </row>
     <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E676" s="7"/>
+      <c r="E676" s="6"/>
     </row>
     <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E677" s="7"/>
+      <c r="E677" s="6"/>
     </row>
     <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E678" s="7"/>
+      <c r="E678" s="6"/>
     </row>
     <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E679" s="7"/>
+      <c r="E679" s="6"/>
     </row>
     <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E680" s="7"/>
+      <c r="E680" s="6"/>
     </row>
     <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E681" s="7"/>
+      <c r="E681" s="6"/>
     </row>
     <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E682" s="7"/>
+      <c r="E682" s="6"/>
     </row>
     <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E683" s="7"/>
+      <c r="E683" s="6"/>
     </row>
     <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E684" s="7"/>
+      <c r="E684" s="6"/>
     </row>
     <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E685" s="7"/>
+      <c r="E685" s="6"/>
     </row>
     <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E686" s="7"/>
+      <c r="E686" s="6"/>
     </row>
     <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E687" s="7"/>
+      <c r="E687" s="6"/>
     </row>
     <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E688" s="7"/>
+      <c r="E688" s="6"/>
     </row>
     <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E689" s="7"/>
+      <c r="E689" s="6"/>
     </row>
     <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E690" s="7"/>
+      <c r="E690" s="6"/>
     </row>
     <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E691" s="7"/>
+      <c r="E691" s="6"/>
     </row>
     <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E692" s="7"/>
+      <c r="E692" s="6"/>
     </row>
     <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E693" s="7"/>
+      <c r="E693" s="6"/>
     </row>
     <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E694" s="7"/>
+      <c r="E694" s="6"/>
     </row>
     <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E695" s="7"/>
+      <c r="E695" s="6"/>
     </row>
     <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E696" s="7"/>
+      <c r="E696" s="6"/>
     </row>
     <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E697" s="7"/>
+      <c r="E697" s="6"/>
     </row>
     <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E698" s="7"/>
+      <c r="E698" s="6"/>
     </row>
     <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E699" s="7"/>
+      <c r="E699" s="6"/>
     </row>
     <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E700" s="7"/>
+      <c r="E700" s="6"/>
     </row>
     <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E701" s="7"/>
+      <c r="E701" s="6"/>
     </row>
     <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E702" s="7"/>
+      <c r="E702" s="6"/>
     </row>
     <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E703" s="7"/>
+      <c r="E703" s="6"/>
     </row>
     <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E704" s="7"/>
+      <c r="E704" s="6"/>
     </row>
     <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E705" s="7"/>
+      <c r="E705" s="6"/>
     </row>
     <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E706" s="7"/>
+      <c r="E706" s="6"/>
     </row>
     <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E707" s="7"/>
+      <c r="E707" s="6"/>
     </row>
     <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E708" s="7"/>
+      <c r="E708" s="6"/>
     </row>
     <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E709" s="7"/>
+      <c r="E709" s="6"/>
     </row>
     <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E710" s="7"/>
+      <c r="E710" s="6"/>
     </row>
     <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E711" s="7"/>
+      <c r="E711" s="6"/>
     </row>
     <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E712" s="7"/>
+      <c r="E712" s="6"/>
     </row>
     <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E713" s="7"/>
+      <c r="E713" s="6"/>
     </row>
     <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E714" s="7"/>
+      <c r="E714" s="6"/>
     </row>
     <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E715" s="7"/>
+      <c r="E715" s="6"/>
     </row>
     <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E716" s="7"/>
+      <c r="E716" s="6"/>
     </row>
     <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E717" s="7"/>
+      <c r="E717" s="6"/>
     </row>
     <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E718" s="7"/>
+      <c r="E718" s="6"/>
     </row>
     <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E719" s="7"/>
+      <c r="E719" s="6"/>
     </row>
     <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E720" s="7"/>
+      <c r="E720" s="6"/>
     </row>
     <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E721" s="7"/>
+      <c r="E721" s="6"/>
     </row>
     <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E722" s="7"/>
+      <c r="E722" s="6"/>
     </row>
     <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E723" s="7"/>
+      <c r="E723" s="6"/>
     </row>
     <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E724" s="7"/>
+      <c r="E724" s="6"/>
     </row>
     <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E725" s="7"/>
+      <c r="E725" s="6"/>
     </row>
     <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E726" s="7"/>
+      <c r="E726" s="6"/>
     </row>
     <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E727" s="7"/>
+      <c r="E727" s="6"/>
     </row>
     <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E728" s="7"/>
+      <c r="E728" s="6"/>
     </row>
     <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E729" s="7"/>
+      <c r="E729" s="6"/>
     </row>
     <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E730" s="7"/>
+      <c r="E730" s="6"/>
     </row>
     <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E731" s="7"/>
+      <c r="E731" s="6"/>
     </row>
     <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E732" s="7"/>
+      <c r="E732" s="6"/>
     </row>
     <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E733" s="7"/>
+      <c r="E733" s="6"/>
     </row>
     <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E734" s="7"/>
+      <c r="E734" s="6"/>
     </row>
     <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E735" s="7"/>
+      <c r="E735" s="6"/>
     </row>
     <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E736" s="7"/>
+      <c r="E736" s="6"/>
     </row>
     <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E737" s="7"/>
+      <c r="E737" s="6"/>
     </row>
     <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E738" s="7"/>
+      <c r="E738" s="6"/>
     </row>
     <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E739" s="7"/>
+      <c r="E739" s="6"/>
     </row>
     <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E740" s="7"/>
+      <c r="E740" s="6"/>
     </row>
     <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E741" s="7"/>
+      <c r="E741" s="6"/>
     </row>
     <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E742" s="7"/>
+      <c r="E742" s="6"/>
     </row>
     <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E743" s="7"/>
+      <c r="E743" s="6"/>
     </row>
     <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E744" s="7"/>
+      <c r="E744" s="6"/>
     </row>
     <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E745" s="7"/>
+      <c r="E745" s="6"/>
     </row>
     <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E746" s="7"/>
+      <c r="E746" s="6"/>
     </row>
     <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E747" s="7"/>
+      <c r="E747" s="6"/>
     </row>
     <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E748" s="7"/>
+      <c r="E748" s="6"/>
     </row>
     <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E749" s="7"/>
+      <c r="E749" s="6"/>
     </row>
     <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E750" s="7"/>
+      <c r="E750" s="6"/>
     </row>
     <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E751" s="7"/>
+      <c r="E751" s="6"/>
     </row>
     <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E752" s="7"/>
+      <c r="E752" s="6"/>
     </row>
     <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E753" s="7"/>
+      <c r="E753" s="6"/>
     </row>
     <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E754" s="7"/>
+      <c r="E754" s="6"/>
     </row>
     <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E755" s="7"/>
+      <c r="E755" s="6"/>
     </row>
     <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E756" s="7"/>
+      <c r="E756" s="6"/>
     </row>
     <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E757" s="7"/>
+      <c r="E757" s="6"/>
     </row>
     <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E758" s="7"/>
+      <c r="E758" s="6"/>
     </row>
     <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E759" s="7"/>
+      <c r="E759" s="6"/>
     </row>
     <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E760" s="7"/>
+      <c r="E760" s="6"/>
     </row>
     <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E761" s="7"/>
+      <c r="E761" s="6"/>
     </row>
     <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E762" s="7"/>
+      <c r="E762" s="6"/>
     </row>
     <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E763" s="7"/>
+      <c r="E763" s="6"/>
     </row>
     <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E764" s="7"/>
+      <c r="E764" s="6"/>
     </row>
     <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E765" s="7"/>
+      <c r="E765" s="6"/>
     </row>
     <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E766" s="7"/>
+      <c r="E766" s="6"/>
     </row>
     <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E767" s="7"/>
+      <c r="E767" s="6"/>
     </row>
     <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E768" s="7"/>
+      <c r="E768" s="6"/>
     </row>
     <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E769" s="7"/>
+      <c r="E769" s="6"/>
     </row>
     <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E770" s="7"/>
+      <c r="E770" s="6"/>
     </row>
     <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E771" s="7"/>
+      <c r="E771" s="6"/>
     </row>
     <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E772" s="7"/>
+      <c r="E772" s="6"/>
     </row>
     <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E773" s="7"/>
+      <c r="E773" s="6"/>
     </row>
     <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E774" s="7"/>
+      <c r="E774" s="6"/>
     </row>
     <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E775" s="7"/>
+      <c r="E775" s="6"/>
     </row>
     <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E776" s="7"/>
+      <c r="E776" s="6"/>
     </row>
     <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E777" s="7"/>
+      <c r="E777" s="6"/>
     </row>
     <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E778" s="7"/>
+      <c r="E778" s="6"/>
     </row>
     <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E779" s="7"/>
+      <c r="E779" s="6"/>
     </row>
     <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E780" s="7"/>
+      <c r="E780" s="6"/>
     </row>
     <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E781" s="7"/>
+      <c r="E781" s="6"/>
     </row>
     <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E782" s="7"/>
+      <c r="E782" s="6"/>
     </row>
     <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E783" s="7"/>
+      <c r="E783" s="6"/>
     </row>
     <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E784" s="7"/>
+      <c r="E784" s="6"/>
     </row>
     <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E785" s="7"/>
+      <c r="E785" s="6"/>
     </row>
     <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E786" s="7"/>
+      <c r="E786" s="6"/>
     </row>
     <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E787" s="7"/>
+      <c r="E787" s="6"/>
     </row>
     <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E788" s="7"/>
+      <c r="E788" s="6"/>
     </row>
     <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E789" s="7"/>
+      <c r="E789" s="6"/>
     </row>
     <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E790" s="7"/>
+      <c r="E790" s="6"/>
     </row>
     <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E791" s="7"/>
+      <c r="E791" s="6"/>
     </row>
     <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E792" s="7"/>
+      <c r="E792" s="6"/>
     </row>
     <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E793" s="7"/>
+      <c r="E793" s="6"/>
     </row>
     <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E794" s="7"/>
+      <c r="E794" s="6"/>
     </row>
     <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E795" s="7"/>
+      <c r="E795" s="6"/>
     </row>
     <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E796" s="7"/>
+      <c r="E796" s="6"/>
     </row>
     <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E797" s="7"/>
+      <c r="E797" s="6"/>
     </row>
     <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E798" s="7"/>
+      <c r="E798" s="6"/>
     </row>
     <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E799" s="7"/>
+      <c r="E799" s="6"/>
     </row>
     <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E800" s="7"/>
+      <c r="E800" s="6"/>
     </row>
     <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E801" s="7"/>
+      <c r="E801" s="6"/>
     </row>
     <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E802" s="7"/>
+      <c r="E802" s="6"/>
     </row>
     <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E803" s="7"/>
+      <c r="E803" s="6"/>
     </row>
     <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E804" s="7"/>
+      <c r="E804" s="6"/>
     </row>
     <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E805" s="7"/>
+      <c r="E805" s="6"/>
     </row>
     <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E806" s="7"/>
+      <c r="E806" s="6"/>
     </row>
     <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E807" s="7"/>
+      <c r="E807" s="6"/>
     </row>
     <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E808" s="7"/>
+      <c r="E808" s="6"/>
     </row>
     <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E809" s="7"/>
+      <c r="E809" s="6"/>
     </row>
     <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E810" s="7"/>
+      <c r="E810" s="6"/>
     </row>
     <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E811" s="7"/>
+      <c r="E811" s="6"/>
     </row>
     <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E812" s="7"/>
+      <c r="E812" s="6"/>
     </row>
     <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E813" s="7"/>
+      <c r="E813" s="6"/>
     </row>
     <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E814" s="7"/>
+      <c r="E814" s="6"/>
     </row>
     <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E815" s="7"/>
+      <c r="E815" s="6"/>
     </row>
     <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E816" s="7"/>
+      <c r="E816" s="6"/>
     </row>
     <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E817" s="7"/>
+      <c r="E817" s="6"/>
     </row>
     <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E818" s="7"/>
+      <c r="E818" s="6"/>
     </row>
     <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E819" s="7"/>
+      <c r="E819" s="6"/>
     </row>
     <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E820" s="7"/>
+      <c r="E820" s="6"/>
     </row>
     <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E821" s="7"/>
+      <c r="E821" s="6"/>
     </row>
     <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E822" s="7"/>
+      <c r="E822" s="6"/>
     </row>
     <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E823" s="7"/>
+      <c r="E823" s="6"/>
     </row>
     <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E824" s="7"/>
+      <c r="E824" s="6"/>
     </row>
     <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E825" s="7"/>
+      <c r="E825" s="6"/>
     </row>
     <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E826" s="7"/>
+      <c r="E826" s="6"/>
     </row>
     <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E827" s="7"/>
+      <c r="E827" s="6"/>
     </row>
     <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E828" s="7"/>
+      <c r="E828" s="6"/>
     </row>
     <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E829" s="7"/>
+      <c r="E829" s="6"/>
     </row>
     <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E830" s="7"/>
+      <c r="E830" s="6"/>
     </row>
     <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E831" s="7"/>
+      <c r="E831" s="6"/>
     </row>
     <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E832" s="7"/>
+      <c r="E832" s="6"/>
     </row>
     <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E833" s="7"/>
+      <c r="E833" s="6"/>
     </row>
     <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E834" s="7"/>
+      <c r="E834" s="6"/>
     </row>
     <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E835" s="7"/>
+      <c r="E835" s="6"/>
     </row>
     <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E836" s="7"/>
+      <c r="E836" s="6"/>
     </row>
     <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E837" s="7"/>
+      <c r="E837" s="6"/>
     </row>
     <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E838" s="7"/>
+      <c r="E838" s="6"/>
     </row>
     <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E839" s="7"/>
+      <c r="E839" s="6"/>
     </row>
     <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E840" s="7"/>
+      <c r="E840" s="6"/>
     </row>
     <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E841" s="7"/>
+      <c r="E841" s="6"/>
     </row>
     <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E842" s="7"/>
+      <c r="E842" s="6"/>
     </row>
     <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E843" s="7"/>
+      <c r="E843" s="6"/>
     </row>
     <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E844" s="7"/>
+      <c r="E844" s="6"/>
     </row>
     <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E845" s="7"/>
+      <c r="E845" s="6"/>
     </row>
     <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E846" s="7"/>
+      <c r="E846" s="6"/>
     </row>
     <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E847" s="7"/>
+      <c r="E847" s="6"/>
     </row>
     <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E848" s="7"/>
+      <c r="E848" s="6"/>
     </row>
     <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E849" s="7"/>
+      <c r="E849" s="6"/>
     </row>
     <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E850" s="7"/>
+      <c r="E850" s="6"/>
     </row>
     <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E851" s="7"/>
+      <c r="E851" s="6"/>
     </row>
     <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E852" s="7"/>
+      <c r="E852" s="6"/>
     </row>
     <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E853" s="7"/>
+      <c r="E853" s="6"/>
     </row>
     <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E854" s="7"/>
+      <c r="E854" s="6"/>
     </row>
     <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E855" s="7"/>
+      <c r="E855" s="6"/>
     </row>
     <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E856" s="7"/>
+      <c r="E856" s="6"/>
     </row>
     <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E857" s="7"/>
+      <c r="E857" s="6"/>
     </row>
     <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E858" s="7"/>
+      <c r="E858" s="6"/>
     </row>
     <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E859" s="7"/>
+      <c r="E859" s="6"/>
     </row>
     <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E860" s="7"/>
+      <c r="E860" s="6"/>
     </row>
     <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E861" s="7"/>
+      <c r="E861" s="6"/>
     </row>
     <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E862" s="7"/>
+      <c r="E862" s="6"/>
     </row>
     <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E863" s="7"/>
+      <c r="E863" s="6"/>
     </row>
     <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E864" s="7"/>
+      <c r="E864" s="6"/>
     </row>
     <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E865" s="7"/>
+      <c r="E865" s="6"/>
     </row>
     <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E866" s="7"/>
+      <c r="E866" s="6"/>
     </row>
     <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E867" s="7"/>
+      <c r="E867" s="6"/>
     </row>
     <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E868" s="7"/>
+      <c r="E868" s="6"/>
     </row>
     <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E869" s="7"/>
+      <c r="E869" s="6"/>
     </row>
     <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E870" s="7"/>
+      <c r="E870" s="6"/>
     </row>
     <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E871" s="7"/>
+      <c r="E871" s="6"/>
     </row>
     <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E872" s="7"/>
+      <c r="E872" s="6"/>
     </row>
     <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E873" s="7"/>
+      <c r="E873" s="6"/>
     </row>
     <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E874" s="7"/>
+      <c r="E874" s="6"/>
     </row>
     <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E875" s="7"/>
+      <c r="E875" s="6"/>
     </row>
     <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E876" s="7"/>
+      <c r="E876" s="6"/>
     </row>
     <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E877" s="7"/>
+      <c r="E877" s="6"/>
     </row>
     <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E878" s="7"/>
+      <c r="E878" s="6"/>
     </row>
     <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E879" s="7"/>
+      <c r="E879" s="6"/>
     </row>
     <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E880" s="7"/>
+      <c r="E880" s="6"/>
     </row>
     <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E881" s="7"/>
+      <c r="E881" s="6"/>
     </row>
     <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E882" s="7"/>
+      <c r="E882" s="6"/>
     </row>
     <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E883" s="7"/>
+      <c r="E883" s="6"/>
     </row>
     <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E884" s="7"/>
+      <c r="E884" s="6"/>
     </row>
     <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E885" s="7"/>
+      <c r="E885" s="6"/>
     </row>
     <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E886" s="7"/>
+      <c r="E886" s="6"/>
     </row>
     <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E887" s="7"/>
+      <c r="E887" s="6"/>
     </row>
     <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E888" s="7"/>
+      <c r="E888" s="6"/>
     </row>
     <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E889" s="7"/>
+      <c r="E889" s="6"/>
     </row>
     <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E890" s="7"/>
+      <c r="E890" s="6"/>
     </row>
     <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E891" s="7"/>
+      <c r="E891" s="6"/>
     </row>
     <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E892" s="7"/>
+      <c r="E892" s="6"/>
     </row>
     <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E893" s="7"/>
+      <c r="E893" s="6"/>
     </row>
     <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E894" s="7"/>
+      <c r="E894" s="6"/>
     </row>
     <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E895" s="7"/>
+      <c r="E895" s="6"/>
     </row>
     <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E896" s="7"/>
+      <c r="E896" s="6"/>
     </row>
     <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E897" s="7"/>
+      <c r="E897" s="6"/>
     </row>
     <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E898" s="7"/>
+      <c r="E898" s="6"/>
     </row>
     <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E899" s="7"/>
+      <c r="E899" s="6"/>
     </row>
     <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E900" s="7"/>
+      <c r="E900" s="6"/>
     </row>
     <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E901" s="7"/>
+      <c r="E901" s="6"/>
     </row>
     <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E902" s="7"/>
+      <c r="E902" s="6"/>
     </row>
     <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E903" s="7"/>
+      <c r="E903" s="6"/>
     </row>
     <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E904" s="7"/>
+      <c r="E904" s="6"/>
     </row>
     <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E905" s="7"/>
+      <c r="E905" s="6"/>
     </row>
     <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E906" s="7"/>
+      <c r="E906" s="6"/>
     </row>
     <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E907" s="7"/>
+      <c r="E907" s="6"/>
     </row>
     <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E908" s="7"/>
+      <c r="E908" s="6"/>
     </row>
     <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E909" s="7"/>
+      <c r="E909" s="6"/>
     </row>
     <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E910" s="7"/>
+      <c r="E910" s="6"/>
     </row>
     <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E911" s="7"/>
+      <c r="E911" s="6"/>
     </row>
     <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E912" s="7"/>
+      <c r="E912" s="6"/>
     </row>
     <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E913" s="7"/>
+      <c r="E913" s="6"/>
     </row>
     <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E914" s="7"/>
+      <c r="E914" s="6"/>
     </row>
     <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E915" s="7"/>
+      <c r="E915" s="6"/>
     </row>
     <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E916" s="7"/>
+      <c r="E916" s="6"/>
     </row>
     <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E917" s="7"/>
+      <c r="E917" s="6"/>
     </row>
     <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E918" s="7"/>
+      <c r="E918" s="6"/>
     </row>
     <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E919" s="7"/>
+      <c r="E919" s="6"/>
     </row>
     <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E920" s="7"/>
+      <c r="E920" s="6"/>
     </row>
     <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E921" s="7"/>
+      <c r="E921" s="6"/>
     </row>
     <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E922" s="7"/>
+      <c r="E922" s="6"/>
     </row>
     <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E923" s="7"/>
+      <c r="E923" s="6"/>
     </row>
     <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E924" s="7"/>
+      <c r="E924" s="6"/>
     </row>
     <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E925" s="7"/>
+      <c r="E925" s="6"/>
     </row>
     <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E926" s="7"/>
+      <c r="E926" s="6"/>
     </row>
     <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E927" s="7"/>
+      <c r="E927" s="6"/>
     </row>
     <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E928" s="7"/>
+      <c r="E928" s="6"/>
     </row>
     <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E929" s="7"/>
+      <c r="E929" s="6"/>
     </row>
     <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E930" s="7"/>
+      <c r="E930" s="6"/>
     </row>
     <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E931" s="7"/>
+      <c r="E931" s="6"/>
     </row>
     <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E932" s="7"/>
+      <c r="E932" s="6"/>
     </row>
     <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E933" s="7"/>
+      <c r="E933" s="6"/>
     </row>
     <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E934" s="7"/>
+      <c r="E934" s="6"/>
     </row>
     <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E935" s="7"/>
+      <c r="E935" s="6"/>
     </row>
     <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E936" s="7"/>
+      <c r="E936" s="6"/>
     </row>
     <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E937" s="7"/>
+      <c r="E937" s="6"/>
     </row>
     <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E938" s="7"/>
+      <c r="E938" s="6"/>
     </row>
     <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E939" s="7"/>
+      <c r="E939" s="6"/>
     </row>
     <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E940" s="7"/>
+      <c r="E940" s="6"/>
     </row>
     <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E941" s="7"/>
+      <c r="E941" s="6"/>
     </row>
     <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E942" s="7"/>
+      <c r="E942" s="6"/>
     </row>
     <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E943" s="7"/>
+      <c r="E943" s="6"/>
     </row>
     <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E944" s="7"/>
+      <c r="E944" s="6"/>
     </row>
     <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E945" s="7"/>
+      <c r="E945" s="6"/>
     </row>
     <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E946" s="7"/>
+      <c r="E946" s="6"/>
     </row>
     <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E947" s="7"/>
+      <c r="E947" s="6"/>
     </row>
     <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E948" s="7"/>
+      <c r="E948" s="6"/>
     </row>
     <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E949" s="7"/>
+      <c r="E949" s="6"/>
     </row>
     <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E950" s="7"/>
+      <c r="E950" s="6"/>
     </row>
     <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E951" s="7"/>
+      <c r="E951" s="6"/>
     </row>
     <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E952" s="7"/>
+      <c r="E952" s="6"/>
     </row>
     <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E953" s="7"/>
+      <c r="E953" s="6"/>
     </row>
     <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E954" s="7"/>
+      <c r="E954" s="6"/>
     </row>
     <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E955" s="7"/>
+      <c r="E955" s="6"/>
     </row>
     <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E956" s="7"/>
+      <c r="E956" s="6"/>
     </row>
     <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E957" s="7"/>
+      <c r="E957" s="6"/>
     </row>
     <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E958" s="7"/>
+      <c r="E958" s="6"/>
     </row>
     <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E959" s="7"/>
+      <c r="E959" s="6"/>
     </row>
     <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E960" s="7"/>
+      <c r="E960" s="6"/>
     </row>
     <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E961" s="7"/>
+      <c r="E961" s="6"/>
     </row>
     <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E962" s="7"/>
+      <c r="E962" s="6"/>
     </row>
     <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E963" s="7"/>
+      <c r="E963" s="6"/>
     </row>
     <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E964" s="7"/>
+      <c r="E964" s="6"/>
     </row>
     <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E965" s="7"/>
+      <c r="E965" s="6"/>
     </row>
     <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E966" s="7"/>
+      <c r="E966" s="6"/>
     </row>
     <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E967" s="7"/>
+      <c r="E967" s="6"/>
     </row>
     <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E968" s="7"/>
+      <c r="E968" s="6"/>
     </row>
     <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E969" s="7"/>
+      <c r="E969" s="6"/>
     </row>
     <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E970" s="7"/>
+      <c r="E970" s="6"/>
     </row>
     <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E971" s="7"/>
+      <c r="E971" s="6"/>
     </row>
     <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E972" s="7"/>
+      <c r="E972" s="6"/>
     </row>
     <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E973" s="7"/>
+      <c r="E973" s="6"/>
     </row>
     <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E974" s="7"/>
+      <c r="E974" s="6"/>
     </row>
     <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E975" s="7"/>
+      <c r="E975" s="6"/>
     </row>
     <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E976" s="7"/>
+      <c r="E976" s="6"/>
     </row>
     <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E977" s="7"/>
+      <c r="E977" s="6"/>
     </row>
     <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E978" s="7"/>
+      <c r="E978" s="6"/>
     </row>
     <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E979" s="7"/>
+      <c r="E979" s="6"/>
     </row>
     <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E980" s="7"/>
+      <c r="E980" s="6"/>
     </row>
     <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E981" s="7"/>
+      <c r="E981" s="6"/>
     </row>
     <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E982" s="7"/>
+      <c r="E982" s="6"/>
     </row>
     <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E983" s="7"/>
+      <c r="E983" s="6"/>
     </row>
     <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E984" s="7"/>
+      <c r="E984" s="6"/>
     </row>
     <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E985" s="7"/>
+      <c r="E985" s="6"/>
     </row>
     <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E986" s="7"/>
+      <c r="E986" s="6"/>
     </row>
     <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E987" s="7"/>
+      <c r="E987" s="6"/>
     </row>
     <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E988" s="7"/>
+      <c r="E988" s="6"/>
     </row>
     <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E989" s="7"/>
+      <c r="E989" s="6"/>
     </row>
     <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E990" s="7"/>
+      <c r="E990" s="6"/>
     </row>
     <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E991" s="7"/>
+      <c r="E991" s="6"/>
     </row>
     <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E992" s="7"/>
+      <c r="E992" s="6"/>
     </row>
     <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E993" s="7"/>
+      <c r="E993" s="6"/>
     </row>
     <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E994" s="7"/>
+      <c r="E994" s="6"/>
     </row>
     <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E995" s="7"/>
+      <c r="E995" s="6"/>
     </row>
     <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E996" s="7"/>
+      <c r="E996" s="6"/>
     </row>
     <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E997" s="7"/>
+      <c r="E997" s="6"/>
     </row>
     <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E998" s="7"/>
+      <c r="E998" s="6"/>
     </row>
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E999" s="7"/>
+      <c r="E999" s="6"/>
     </row>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E1000" s="7"/>
+      <c r="E1000" s="6"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/jugadores.xlsx
+++ b/jugadores.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="149">
   <si>
     <t xml:space="preserve">Nombre completo</t>
   </si>
@@ -304,6 +304,21 @@
     <t xml:space="preserve">OLAVERRY</t>
   </si>
   <si>
+    <t xml:space="preserve">25.03.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">092360268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMINA 098234751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEBASTIAN 098933416</t>
+  </si>
+  <si>
     <t xml:space="preserve">PELAEZ</t>
   </si>
   <si>
@@ -401,9 +416,6 @@
   </si>
   <si>
     <t xml:space="preserve">099435578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMS</t>
   </si>
   <si>
     <t xml:space="preserve">ESGUINCE TOBILLO IZQ
@@ -831,8 +843,8 @@
   </sheetPr>
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L30" activeCellId="0" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1682,25 +1694,47 @@
         <v>57883554</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="6" t="n">
-        <v>36901</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="D18" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>182</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>61.7</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="I18" s="8"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
+      <c r="J18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B19" s="5" t="n">
         <v>57847241</v>
@@ -1712,7 +1746,7 @@
         <v>39876</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>178</v>
@@ -1728,27 +1762,27 @@
         <v>20</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B20" s="5" t="n">
         <v>57368655</v>
@@ -1760,7 +1794,7 @@
         <v>39617</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>183</v>
@@ -1783,18 +1817,18 @@
         <v>20</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B21" s="5" t="n">
         <v>57551733</v>
@@ -1806,7 +1840,7 @@
         <v>39714</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F21" s="5" t="n">
         <v>178</v>
@@ -1834,15 +1868,15 @@
         <v>20</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B22" s="5" t="n">
         <v>57842984</v>
@@ -1854,7 +1888,7 @@
         <v>39875</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>176</v>
@@ -1866,7 +1900,7 @@
         <v>19</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>20</v>
@@ -1881,18 +1915,18 @@
         <v>20</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B23" s="5" t="n">
         <v>57462669</v>
@@ -1904,7 +1938,7 @@
         <v>39668</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>170</v>
@@ -1916,7 +1950,7 @@
         <v>25</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>20</v>
@@ -1934,13 +1968,13 @@
         <v>20</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="P23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B24" s="5" t="n">
         <v>57204110</v>
@@ -1952,7 +1986,7 @@
         <v>39544</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>164</v>
@@ -1964,7 +1998,7 @@
         <v>19</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>20</v>
@@ -1982,15 +2016,15 @@
         <v>20</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B25" s="5" t="n">
         <v>58186064</v>
@@ -2002,7 +2036,7 @@
         <v>40082</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>175</v>
@@ -2011,11 +2045,11 @@
         <v>64</v>
       </c>
       <c r="H25" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="J25" s="5" t="s">
         <v>20</v>
       </c>
@@ -2029,18 +2063,18 @@
         <v>20</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>57079872</v>
@@ -2052,7 +2086,7 @@
         <v>39482</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>175</v>
@@ -2080,15 +2114,15 @@
         <v>20</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>57215747</v>
@@ -2100,7 +2134,7 @@
         <v>39547</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>170</v>
@@ -2125,18 +2159,18 @@
         <v>20</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="n">
         <v>57179272</v>
@@ -2175,15 +2209,15 @@
         <v>20</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B29" s="5" t="n">
         <v>56988981</v>
@@ -2195,7 +2229,7 @@
         <v>39453</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F29" s="1" t="n">
         <v>170</v>
@@ -2207,7 +2241,7 @@
         <v>25</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>20</v>
@@ -2225,10 +2259,10 @@
         <v>20</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/jugadores.xlsx
+++ b/jugadores.xlsx
@@ -301,7 +301,7 @@
     <t xml:space="preserve">DIEGO MENDEZ 099913218</t>
   </si>
   <si>
-    <t xml:space="preserve">OLAVERRY</t>
+    <t xml:space="preserve">OLAVERRY SEBASTIAN</t>
   </si>
   <si>
     <t xml:space="preserve">25.03.09</t>
@@ -843,8 +843,8 @@
   </sheetPr>
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L30" activeCellId="0" sqref="L30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1693,7 +1693,9 @@
       <c r="B18" s="5" t="n">
         <v>57883554</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5" t="n">
+        <v>16</v>
+      </c>
       <c r="D18" s="6" t="s">
         <v>93</v>
       </c>
